--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="50">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -176,6 +176,22 @@
   </si>
   <si>
     <t>哈尔滨消费金融无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生信托无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>华融金交平台无纸化实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅优质员工贷管理办法上会汇报</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅优质员工贷无纸化实施</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -743,6 +759,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -764,12 +786,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,11 +1082,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1079,14 +1095,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1133,10 +1149,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1147,16 +1163,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1235,7 +1251,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1275,7 +1291,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1311,7 +1327,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1420,7 +1436,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1438,7 +1454,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1455,7 +1471,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1501,7 +1517,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1512,7 +1528,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1520,7 +1536,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1539,7 +1555,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1549,14 +1565,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1575,7 +1591,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1585,14 +1601,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1611,7 +1627,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1621,14 +1637,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1647,7 +1663,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1657,14 +1673,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1699,7 +1715,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1709,14 +1725,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1740,7 +1756,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1750,14 +1766,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1781,7 +1797,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1791,14 +1807,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1817,7 +1833,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1827,14 +1843,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1853,7 +1869,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1863,14 +1879,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1889,7 +1905,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1899,14 +1915,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1925,7 +1941,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1935,20 +1951,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -1958,16 +1984,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1999,11 +2015,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2012,14 +2028,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2066,10 +2082,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2080,16 +2096,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2168,7 +2184,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2214,7 +2230,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2250,7 +2266,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2359,7 +2375,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2383,7 +2399,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2400,7 +2416,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2446,7 +2462,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2463,7 +2479,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2471,7 +2487,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2490,7 +2506,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2506,14 +2522,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2532,7 +2548,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2548,14 +2564,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2574,7 +2590,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2590,14 +2606,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2616,7 +2632,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2632,14 +2648,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2674,7 +2690,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2690,14 +2706,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2721,7 +2737,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2737,7 +2753,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2750,7 +2766,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2774,7 +2790,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2790,14 +2806,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2816,7 +2832,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2832,14 +2848,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2858,7 +2874,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2874,14 +2890,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2900,7 +2916,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2910,14 +2926,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2936,7 +2952,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2946,20 +2962,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2969,16 +2995,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3010,11 +3026,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3023,14 +3039,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3077,10 +3093,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3091,16 +3107,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3179,7 +3195,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3225,7 +3241,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3261,7 +3277,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3370,7 +3386,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3385,7 +3401,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3402,7 +3418,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3454,7 +3470,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3471,7 +3487,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3479,7 +3495,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3498,7 +3514,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3514,14 +3530,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3540,7 +3556,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3556,14 +3572,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3582,7 +3598,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3592,14 +3608,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3618,7 +3634,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3628,14 +3644,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3670,7 +3686,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3686,7 +3702,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3699,7 +3715,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3723,7 +3739,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3739,14 +3755,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3770,7 +3786,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3786,7 +3802,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3799,7 +3815,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3818,7 +3834,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3834,7 +3850,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -3847,7 +3863,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3866,7 +3882,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3882,7 +3898,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -3895,7 +3911,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3914,7 +3930,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3924,14 +3940,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3950,7 +3966,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3960,20 +3976,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3983,16 +4009,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4008,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4024,11 +4040,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4037,14 +4053,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4091,10 +4107,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="54">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4105,16 +4121,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="56">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4193,7 +4209,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4239,7 +4255,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4281,7 +4297,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4390,7 +4406,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4414,7 +4430,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4431,7 +4447,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4477,7 +4493,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4494,7 +4510,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4502,7 +4518,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4521,7 +4537,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4537,14 +4553,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4563,7 +4579,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4579,14 +4595,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4605,7 +4621,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4615,14 +4631,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4641,7 +4657,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4651,14 +4667,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4693,7 +4709,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4709,14 +4725,20 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="40"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4740,24 +4762,30 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42864</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="C49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4781,24 +4809,30 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42865</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4817,24 +4851,30 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42866</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="C59" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4853,24 +4893,30 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42867</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="C64" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4889,7 +4935,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4899,14 +4945,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4925,7 +4971,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4935,27 +4981,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -4968,6 +5007,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
     <sheet name="Week 14-15" sheetId="6" r:id="rId2"/>
     <sheet name="Week 16-17" sheetId="7" r:id="rId3"/>
     <sheet name="Week 18-19" sheetId="8" r:id="rId4"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 14-15'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 16-17'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 20-21'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="53">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -192,6 +194,18 @@
   </si>
   <si>
     <t>焦作中旅优质员工贷无纸化实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>华融金交中心实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品规划</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子发票技术交流</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -666,12 +680,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -759,12 +784,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -788,6 +807,14 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1082,11 +1109,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1095,14 +1122,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1149,10 +1176,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1163,16 +1190,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1251,7 +1278,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1291,7 +1318,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1327,7 +1354,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1436,7 +1463,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1454,7 +1481,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1471,7 +1498,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1517,7 +1544,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1528,7 +1555,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1536,7 +1563,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1555,7 +1582,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1565,14 +1592,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1591,7 +1618,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1601,14 +1628,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1627,7 +1654,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1637,14 +1664,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1663,7 +1690,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1673,14 +1700,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1715,7 +1742,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1725,14 +1752,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1756,7 +1783,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1766,14 +1793,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1797,7 +1824,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1807,14 +1834,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1833,7 +1860,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1843,14 +1870,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1869,7 +1896,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1879,14 +1906,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1905,7 +1932,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1915,14 +1942,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1941,7 +1968,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1951,30 +1978,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -1984,6 +2001,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2015,11 +2042,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2028,14 +2055,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2082,10 +2109,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2096,16 +2123,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2184,7 +2211,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2230,7 +2257,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2266,7 +2293,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2375,7 +2402,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2399,7 +2426,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2416,7 +2443,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2462,7 +2489,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2479,7 +2506,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2487,7 +2514,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2506,7 +2533,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2522,14 +2549,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2548,7 +2575,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2564,14 +2591,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2590,7 +2617,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2606,14 +2633,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2632,7 +2659,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2648,14 +2675,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2690,7 +2717,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2706,14 +2733,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2737,7 +2764,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2753,7 +2780,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2766,7 +2793,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2790,7 +2817,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2806,14 +2833,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2832,7 +2859,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2848,14 +2875,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2874,7 +2901,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2890,14 +2917,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2916,7 +2943,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2926,14 +2953,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2952,7 +2979,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2962,30 +2989,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2995,6 +3012,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3026,11 +3053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3039,14 +3066,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3093,10 +3120,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3107,16 +3134,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3195,7 +3222,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3241,7 +3268,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3277,7 +3304,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3386,7 +3413,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3401,7 +3428,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3418,7 +3445,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3470,7 +3497,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3487,7 +3514,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3495,7 +3522,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3514,7 +3541,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3530,14 +3557,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3556,7 +3583,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3572,14 +3599,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3598,7 +3625,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3608,14 +3635,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3634,7 +3661,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3644,14 +3671,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3686,7 +3713,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3702,7 +3729,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3715,7 +3742,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3739,7 +3766,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3755,14 +3782,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3786,7 +3813,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3802,7 +3829,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3842,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3834,7 +3861,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3850,7 +3877,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -3863,7 +3890,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3882,7 +3909,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3898,7 +3925,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -3911,7 +3938,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3930,7 +3957,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3940,14 +3967,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3966,7 +3993,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -3976,30 +4003,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4009,6 +4026,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4024,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4040,11 +4067,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4053,14 +4080,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4107,10 +4134,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="52">
         <v>2017</v>
       </c>
-      <c r="M3" s="55"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4121,16 +4148,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="58"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4209,7 +4236,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4255,7 +4282,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4297,7 +4324,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4406,7 +4433,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4430,7 +4457,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4447,7 +4474,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4493,7 +4520,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4510,7 +4537,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4518,7 +4545,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4537,7 +4564,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4553,14 +4580,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4579,7 +4606,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4595,14 +4622,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4621,7 +4648,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4631,14 +4658,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4657,7 +4684,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4667,14 +4694,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4709,7 +4736,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4725,7 +4752,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -4738,7 +4765,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4762,7 +4789,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4778,14 +4805,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4809,7 +4836,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4825,14 +4852,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4851,7 +4878,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4867,14 +4894,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4893,7 +4920,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4909,14 +4936,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4935,7 +4962,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4945,14 +4972,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4971,7 +4998,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -4981,20 +5008,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5007,6 +5041,981 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:E64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>5</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="52">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="53"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="54">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="24">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="24">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="57">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="57">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="58"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="57">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="57">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="57">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="57">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="57">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="57">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="57">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="57">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="57">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="23"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="57">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="57">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="38"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="57">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -5014,6 +6023,18 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="54">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>电子发票技术交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化实施</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -390,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -691,12 +695,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -784,6 +834,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -807,14 +865,11 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1109,11 +1164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1122,14 +1177,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1176,10 +1231,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="56">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1190,16 +1245,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="58">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1278,7 +1333,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1318,7 +1373,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1354,7 +1409,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1463,7 +1518,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1481,7 +1536,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1498,7 +1553,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1544,7 +1599,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1555,7 +1610,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1563,7 +1618,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1582,7 +1637,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1592,14 +1647,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1618,7 +1673,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1628,14 +1683,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1654,7 +1709,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1664,14 +1719,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1690,7 +1745,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1700,14 +1755,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1742,7 +1797,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1752,14 +1807,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1783,7 +1838,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1793,14 +1848,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1824,7 +1879,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1834,14 +1889,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1860,7 +1915,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1870,14 +1925,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1896,7 +1951,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1906,14 +1961,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1932,7 +1987,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1942,14 +1997,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -1968,7 +2023,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1978,20 +2033,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2001,16 +2066,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2042,11 +2097,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2055,14 +2110,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2109,10 +2164,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="56">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2123,16 +2178,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="58">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2211,7 +2266,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2257,7 +2312,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2293,7 +2348,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2402,7 +2457,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2426,7 +2481,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2443,7 +2498,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2489,7 +2544,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2506,7 +2561,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2514,7 +2569,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2533,7 +2588,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2549,14 +2604,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2575,7 +2630,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2591,14 +2646,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2617,7 +2672,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2633,14 +2688,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2659,7 +2714,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2675,14 +2730,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2717,7 +2772,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2733,14 +2788,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2764,7 +2819,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2780,7 +2835,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2793,7 +2848,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2817,7 +2872,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2833,14 +2888,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2859,7 +2914,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2875,14 +2930,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2901,7 +2956,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2917,14 +2972,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2943,7 +2998,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -2953,14 +3008,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2979,7 +3034,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -2989,20 +3044,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3012,16 +3077,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3053,11 +3108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3066,14 +3121,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3120,10 +3175,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="56">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3134,16 +3189,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="58">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3222,7 +3277,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3268,7 +3323,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3304,7 +3359,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3413,7 +3468,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3428,7 +3483,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3445,7 +3500,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3552,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3514,7 +3569,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3522,7 +3577,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3541,7 +3596,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3557,14 +3612,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3583,7 +3638,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3599,14 +3654,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3625,7 +3680,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3635,14 +3690,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3661,7 +3716,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3671,14 +3726,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3713,7 +3768,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3729,7 +3784,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3742,7 +3797,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3766,7 +3821,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3782,14 +3837,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3813,7 +3868,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3829,7 +3884,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3842,7 +3897,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3861,7 +3916,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3877,7 +3932,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -3890,7 +3945,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3909,7 +3964,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3925,7 +3980,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -3938,7 +3993,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3957,7 +4012,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -3967,14 +4022,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3993,7 +4048,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -4003,20 +4058,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4026,16 +4091,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4067,11 +4122,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4080,14 +4135,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4134,10 +4189,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="56">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4148,16 +4203,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="58">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4236,7 +4291,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4282,7 +4337,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4324,7 +4379,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4433,7 +4488,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4457,7 +4512,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4474,7 +4529,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4520,7 +4575,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4537,7 +4592,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4545,7 +4600,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4564,7 +4619,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4580,14 +4635,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4606,7 +4661,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4622,14 +4677,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4648,7 +4703,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4658,14 +4713,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4684,7 +4739,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4694,14 +4749,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4736,7 +4791,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4752,7 +4807,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -4765,7 +4820,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4789,7 +4844,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4805,14 +4860,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4836,7 +4891,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4852,14 +4907,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4878,7 +4933,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4894,14 +4949,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4920,7 +4975,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4936,14 +4991,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4962,7 +5017,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -4972,14 +5027,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4998,7 +5053,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -5008,27 +5063,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5041,6 +5089,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5056,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:E64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5072,11 +5127,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5085,14 +5140,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5139,10 +5194,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="56">
         <v>2017</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5153,16 +5208,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="54">
+      <c r="G4" s="58">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5208,6 +5263,7 @@
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="24" t="str">
         <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
         <v/>
@@ -5241,7 +5297,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="52">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -5251,10 +5307,10 @@
       <c r="D7" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -5288,10 +5344,11 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
         <v>42869</v>
@@ -5324,11 +5381,11 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>42876</v>
@@ -5400,7 +5457,8 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5433,7 +5491,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="52">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -5446,6 +5504,7 @@
       <c r="E12" s="49" t="s">
         <v>52</v>
       </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -5457,10 +5516,11 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
@@ -5474,10 +5534,11 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
@@ -5513,42 +5574,45 @@
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="35"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="52">
         <f>B12+1</f>
         <v>42872</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
@@ -5561,36 +5625,40 @@
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>B17+1</f>
         <v>42873</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>51</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
@@ -5603,10 +5671,11 @@
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="52">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -5616,23 +5685,26 @@
       <c r="D27" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="50" t="s">
         <v>51</v>
       </c>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
+      <c r="F29" s="61"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
@@ -5645,35 +5717,39 @@
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="52">
         <f>B27+1</f>
         <v>42875</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="61"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="61"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20">
         <f>B37</f>
         <v>42876</v>
@@ -5681,35 +5757,39 @@
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="61"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="52">
         <f>B32+1</f>
         <v>42876</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="61"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="61"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>5</v>
@@ -5724,19 +5804,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20">
         <f>B44</f>
         <v>42877</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="62"/>
+      <c r="F43" s="61"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="52">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5746,32 +5827,35 @@
       <c r="D44" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="61"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="41"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="65"/>
+      <c r="F46" s="61"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="30"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="20">
         <f>B49</f>
@@ -5779,11 +5863,12 @@
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="62"/>
+      <c r="F48" s="61"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="52">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5793,32 +5878,35 @@
       <c r="D49" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="61"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="42"/>
+      <c r="F50" s="61"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="65"/>
+      <c r="F51" s="61"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="30"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="20">
         <f>B54</f>
@@ -5826,11 +5914,12 @@
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="62"/>
+      <c r="F53" s="61"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="52">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -5840,39 +5929,43 @@
       <c r="D54" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="61"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="50"/>
+      <c r="F55" s="61"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="65"/>
+      <c r="F56" s="61"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
     </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20">
         <f>B59</f>
         <v>42880</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="23"/>
-    </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="62"/>
+      <c r="F58" s="61"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="52">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -5882,39 +5975,43 @@
       <c r="D59" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="61"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="50"/>
+      <c r="F60" s="61"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="65"/>
+      <c r="F61" s="61"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
     </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="20">
         <f>B64</f>
         <v>42881</v>
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-    </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="62"/>
+      <c r="F63" s="61"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="52">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -5924,28 +6021,31 @@
       <c r="D64" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="61"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="52"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="50"/>
+      <c r="F65" s="61"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-    </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="65"/>
+      <c r="F66" s="61"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="30"/>
     </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="20">
         <f>B69</f>
         <v>42882</v>
@@ -5953,35 +6053,39 @@
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
       <c r="E68" s="23"/>
-    </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="61"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="52">
         <f>B64+1</f>
         <v>42882</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
       <c r="E69" s="38"/>
-    </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="61"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
-    </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F70" s="61"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
-    </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F71" s="61"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="30"/>
     </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20">
         <f>B74</f>
         <v>42883</v>
@@ -5989,33 +6093,49 @@
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
       <c r="E73" s="23"/>
-    </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F73" s="61"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="52">
         <f>B69+1</f>
         <v>42883</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="38"/>
-    </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F74" s="61"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="52"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
-    </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="61"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
+      <c r="F76" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -6023,18 +6143,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -212,6 +212,14 @@
     <t>郑州银行无纸化实施</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>招商银行信用卡无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州公积金无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -324,12 +332,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -344,6 +354,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -836,12 +847,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -865,11 +875,12 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1164,11 +1175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1177,14 +1188,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1231,10 +1242,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1245,16 +1256,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="58">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1333,7 +1344,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="64">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1373,7 +1384,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1409,7 +1420,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1518,7 +1529,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="64">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1536,7 +1547,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1553,7 +1564,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1599,7 +1610,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="64">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1610,7 +1621,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1618,7 +1629,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1637,7 +1648,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="64">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1647,14 +1658,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1673,7 +1684,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="64">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1683,14 +1694,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1709,7 +1720,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="64">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1719,14 +1730,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1745,7 +1756,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="64">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1755,14 +1766,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1797,7 +1808,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="64">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1807,14 +1818,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1838,7 +1849,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="64">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1848,14 +1859,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1879,7 +1890,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="64">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1889,14 +1900,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1915,7 +1926,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="64">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1925,14 +1936,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1951,7 +1962,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="64">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1961,14 +1972,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1987,7 +1998,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="64">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1997,14 +2008,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2023,7 +2034,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="64">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2033,30 +2044,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2066,6 +2067,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2097,11 +2108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2110,14 +2121,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2164,10 +2175,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2178,16 +2189,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="58">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2266,7 +2277,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="64">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2312,7 +2323,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2348,7 +2359,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2457,7 +2468,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="64">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2481,7 +2492,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2498,7 +2509,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2544,7 +2555,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="64">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2561,7 +2572,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2569,7 +2580,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2588,7 +2599,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="64">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2604,14 +2615,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2630,7 +2641,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="64">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2646,14 +2657,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2672,7 +2683,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="64">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2688,14 +2699,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2714,7 +2725,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="64">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2730,14 +2741,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2772,7 +2783,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="64">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2788,14 +2799,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2819,7 +2830,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="64">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2835,7 +2846,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2848,7 +2859,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2872,7 +2883,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="64">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2888,14 +2899,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2914,7 +2925,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="64">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2930,14 +2941,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2956,7 +2967,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="64">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2972,14 +2983,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2998,7 +3009,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="64">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -3008,14 +3019,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3034,7 +3045,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="64">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -3044,30 +3055,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3077,6 +3078,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3108,11 +3119,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3121,14 +3132,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3175,10 +3186,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3189,16 +3200,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="58">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3277,7 +3288,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="64">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3323,7 +3334,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3359,7 +3370,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3468,7 +3479,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="64">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3483,7 +3494,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3500,7 +3511,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3552,7 +3563,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="64">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3569,7 +3580,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3577,7 +3588,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3596,7 +3607,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="64">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3612,14 +3623,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3638,7 +3649,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="64">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3654,14 +3665,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3680,7 +3691,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="64">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3690,14 +3701,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3716,7 +3727,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="64">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3726,14 +3737,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3768,7 +3779,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="64">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3784,7 +3795,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3797,7 +3808,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3821,7 +3832,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="64">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3837,14 +3848,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3868,7 +3879,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="64">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3884,7 +3895,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3897,7 +3908,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3916,7 +3927,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="64">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3932,7 +3943,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -3945,7 +3956,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3964,7 +3975,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="64">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3980,7 +3991,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -3993,7 +4004,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4012,7 +4023,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="64">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -4022,14 +4033,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4048,7 +4059,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="64">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -4058,30 +4069,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4091,6 +4092,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4122,11 +4133,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4135,14 +4146,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4189,10 +4200,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4203,16 +4214,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="58">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4291,7 +4302,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="64">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4337,7 +4348,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4379,7 +4390,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4488,7 +4499,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="64">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4512,7 +4523,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4529,7 +4540,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4575,7 +4586,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="64">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4592,7 +4603,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4600,7 +4611,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4619,7 +4630,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="64">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4635,14 +4646,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4661,7 +4672,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="64">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4677,14 +4688,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4703,7 +4714,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="64">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4713,14 +4724,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4739,7 +4750,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="64">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4749,14 +4760,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4791,7 +4802,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="64">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4807,7 +4818,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -4820,7 +4831,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4844,7 +4855,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="64">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4860,14 +4871,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4891,7 +4902,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="64">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4907,14 +4918,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4933,7 +4944,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="64">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4949,14 +4960,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4975,7 +4986,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="64">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -4991,14 +5002,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5017,7 +5028,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="64">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -5027,14 +5038,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5053,7 +5064,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="64">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -5063,20 +5074,27 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5089,13 +5107,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5111,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5127,11 +5138,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5140,14 +5151,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5194,10 +5205,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="59">
         <v>2017</v>
       </c>
-      <c r="M3" s="57"/>
+      <c r="M3" s="60"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5208,16 +5219,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="58">
+      <c r="G4" s="61">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="60"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5297,7 +5308,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="52">
+      <c r="B7" s="64">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -5344,7 +5355,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="52"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -5381,7 +5392,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="53"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5457,8 +5468,8 @@
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -5491,7 +5502,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="52">
+      <c r="B12" s="64">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -5504,7 +5515,7 @@
       <c r="E12" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -5516,11 +5527,11 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="52"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="61"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
@@ -5534,11 +5545,11 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="61"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
@@ -5574,14 +5585,14 @@
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="61"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="35"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="52">
+      <c r="B17" s="64">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -5594,25 +5605,25 @@
       <c r="E17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
-      <c r="F18" s="61"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="53"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="61"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
@@ -5625,11 +5636,11 @@
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="61"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="52">
+      <c r="B22" s="64">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -5642,23 +5653,23 @@
       <c r="E22" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="61"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="53"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="61"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30"/>
@@ -5671,11 +5682,11 @@
       <c r="C26" s="21"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="61"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="52">
+      <c r="B27" s="64">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -5688,23 +5699,23 @@
       <c r="E27" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="61"/>
+      <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="61"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
@@ -5717,34 +5728,34 @@
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="23"/>
-      <c r="F31" s="61"/>
+      <c r="F31" s="52"/>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="52">
+      <c r="B32" s="64">
         <f>B27+1</f>
         <v>42875</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="61"/>
+      <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="61"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="53"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="61"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
@@ -5757,34 +5768,34 @@
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="61"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="52">
+      <c r="B37" s="64">
         <f>B32+1</f>
         <v>42876</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="61"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
-      <c r="F38" s="61"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
-      <c r="F39" s="61"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
@@ -5812,12 +5823,12 @@
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="61"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52"/>
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="52">
+      <c r="B44" s="64">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5830,23 +5841,23 @@
       <c r="E44" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="61"/>
+      <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
-      <c r="F45" s="61"/>
+      <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="53"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
@@ -5863,12 +5874,12 @@
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="61"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="52"/>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="52">
+      <c r="B49" s="64">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5881,23 +5892,23 @@
       <c r="E49" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="64"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
-      <c r="F50" s="61"/>
+      <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="53"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="61"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
@@ -5914,41 +5925,41 @@
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="61"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="52">
+      <c r="B54" s="64">
         <f>B49+1</f>
         <v>42879</v>
       </c>
-      <c r="C54" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="61"/>
+      <c r="C54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="50"/>
-      <c r="F55" s="61"/>
+      <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="61"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
@@ -5960,41 +5971,41 @@
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="61"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="52"/>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="52">
+      <c r="B59" s="64">
         <f>B54+1</f>
         <v>42880</v>
       </c>
-      <c r="C59" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="61"/>
+      <c r="C59" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="64"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
-      <c r="F60" s="61"/>
+      <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="53"/>
+      <c r="B61" s="65"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="61"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
@@ -6006,41 +6017,41 @@
       </c>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="61"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="52"/>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="52">
+      <c r="B64" s="64">
         <f>B59+1</f>
         <v>42881</v>
       </c>
-      <c r="C64" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="61"/>
+      <c r="C64" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="52"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
-      <c r="F65" s="61"/>
+      <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="61"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="30"/>
@@ -6053,34 +6064,34 @@
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
       <c r="E68" s="23"/>
-      <c r="F68" s="61"/>
+      <c r="F68" s="52"/>
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="52">
+      <c r="B69" s="64">
         <f>B64+1</f>
         <v>42882</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
       <c r="E69" s="38"/>
-      <c r="F69" s="61"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="52"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
-      <c r="F70" s="61"/>
+      <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
-      <c r="F71" s="61"/>
+      <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="30"/>
@@ -6093,37 +6104,44 @@
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
       <c r="E73" s="23"/>
-      <c r="F73" s="61"/>
+      <c r="F73" s="52"/>
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="52">
+      <c r="B74" s="64">
         <f>B69+1</f>
         <v>42883</v>
       </c>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="38"/>
-      <c r="F74" s="61"/>
+      <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="52"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
-      <c r="F75" s="61"/>
+      <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="61"/>
+      <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6136,13 +6154,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Week 16-17" sheetId="7" r:id="rId3"/>
     <sheet name="Week 18-19" sheetId="8" r:id="rId4"/>
     <sheet name="Week 20-21" sheetId="9" r:id="rId5"/>
+    <sheet name="Week 22-23" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
@@ -24,6 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 16-17'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 22-23'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="67">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -213,11 +215,55 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>招商银行信用卡无纸化交流</t>
+    <t>航信电子发票平台合作交流</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>常州公积金无纸化交流</t>
+    <t>招商银行信用卡无纸化投标</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>常州公积金无纸化demo准备</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇江公积金无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>返京</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京银行柜面无纸化实施支持</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>节假日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC手写签名控件及手写屏梳理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品规划</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴可信电子签名及解决方案交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>立白集团无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰集团无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王手写笔迹校验技术合作交流</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -757,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -852,6 +898,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -875,12 +927,7 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1188,14 +1235,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1242,10 +1289,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="61">
         <v>2017</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1256,16 +1303,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="61">
+      <c r="G4" s="63">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1344,7 +1391,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1384,7 +1431,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1420,7 +1467,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1529,7 +1576,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1547,7 +1594,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1564,7 +1611,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1610,7 +1657,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="64">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1621,7 +1668,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1629,7 +1676,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1648,7 +1695,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="64">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1658,14 +1705,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="64"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1684,7 +1731,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="64">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1694,14 +1741,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1720,7 +1767,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="64">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1730,14 +1777,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1756,7 +1803,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="64">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1766,14 +1813,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1808,7 +1855,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="64">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1818,14 +1865,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="64"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="65"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1849,7 +1896,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="64">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1859,14 +1906,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1890,7 +1937,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="64">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1900,14 +1947,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1926,7 +1973,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="64">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1936,14 +1983,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="64"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -1962,7 +2009,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="64">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1972,14 +2019,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="64"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="65"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -1998,7 +2045,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="64">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2008,14 +2055,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="64"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="65"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2034,7 +2081,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="64">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2044,20 +2091,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="65"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2067,16 +2124,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2108,11 +2155,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2121,14 +2168,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2175,10 +2222,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="61">
         <v>2017</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2189,16 +2236,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="61">
+      <c r="G4" s="63">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2277,7 +2324,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2323,7 +2370,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2359,7 +2406,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2468,7 +2515,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2492,7 +2539,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2509,7 +2556,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2555,7 +2602,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="64">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2572,7 +2619,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2580,7 +2627,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2599,7 +2646,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="64">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2615,14 +2662,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="64"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2641,7 +2688,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="64">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2657,14 +2704,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2683,7 +2730,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="64">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2699,14 +2746,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2725,7 +2772,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="64">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2741,14 +2788,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2783,7 +2830,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="64">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2799,14 +2846,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="64"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="65"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2830,7 +2877,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="64">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2846,7 +2893,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2859,7 +2906,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2883,7 +2930,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="64">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2899,14 +2946,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2925,7 +2972,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="64">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2941,14 +2988,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="64"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2967,7 +3014,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="64">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -2983,14 +3030,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="64"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="65"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3009,7 +3056,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="64">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -3019,14 +3066,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="64"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="65"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3045,7 +3092,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="64">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -3055,20 +3102,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="65"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3078,16 +3135,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3119,11 +3166,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3132,14 +3179,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3186,10 +3233,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="61">
         <v>2017</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3200,16 +3247,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="61">
+      <c r="G4" s="63">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3288,7 +3335,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3334,7 +3381,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3370,7 +3417,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3479,7 +3526,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3494,7 +3541,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3511,7 +3558,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3563,7 +3610,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="64">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3580,7 +3627,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3588,7 +3635,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3607,7 +3654,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="64">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3623,14 +3670,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="64"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3649,7 +3696,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="64">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3665,14 +3712,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3691,7 +3738,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="64">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3701,14 +3748,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3727,7 +3774,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="64">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3737,14 +3784,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3779,7 +3826,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="64">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3795,7 +3842,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="64"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3808,7 +3855,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="65"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3832,7 +3879,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="64">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3848,14 +3895,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3879,7 +3926,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="64">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3895,7 +3942,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3908,7 +3955,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3927,7 +3974,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="64">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3943,7 +3990,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="64"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -3956,7 +4003,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3975,7 +4022,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="64">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -3991,7 +4038,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="64"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -4004,7 +4051,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="65"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4023,7 +4070,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="64">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -4033,14 +4080,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="64"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="65"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4059,7 +4106,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="64">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -4069,20 +4116,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="65"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4092,16 +4149,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4133,11 +4180,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4146,14 +4193,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4200,10 +4247,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="61">
         <v>2017</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4214,16 +4261,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="61">
+      <c r="G4" s="63">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4302,7 +4349,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4348,7 +4395,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4390,7 +4437,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4499,7 +4546,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4523,7 +4570,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -4540,7 +4587,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4586,7 +4633,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="64">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4603,7 +4650,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4611,7 +4658,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4630,7 +4677,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="64">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4646,14 +4693,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="64"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4672,7 +4719,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="64">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4688,14 +4735,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4714,7 +4761,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="64">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4724,14 +4771,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4750,7 +4797,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="64">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4760,14 +4807,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4802,7 +4849,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="64">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4818,7 +4865,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="64"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -4831,7 +4878,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="65"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4855,7 +4902,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="64">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4871,14 +4918,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4902,7 +4949,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="64">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4918,14 +4965,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="64"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4944,7 +4991,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="64">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4960,14 +5007,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="64"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4986,7 +5033,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="64">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -5002,14 +5049,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="64"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="48"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="65"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5028,7 +5075,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="64">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -5038,14 +5085,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="64"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="65"/>
+      <c r="B71" s="58"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5064,7 +5111,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="64">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -5074,27 +5121,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="65"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5107,6 +5147,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5122,8 +5169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5138,11 +5185,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5151,14 +5198,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5205,10 +5252,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="59">
+      <c r="L3" s="61">
         <v>2017</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="62"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5219,16 +5266,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="61">
+      <c r="G4" s="63">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="63"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5308,7 +5355,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="64">
+      <c r="B7" s="57">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -5355,7 +5402,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -5392,7 +5439,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5502,7 +5549,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64">
+      <c r="B12" s="57">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -5527,7 +5574,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -5545,7 +5592,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -5592,7 +5639,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="64">
+      <c r="B17" s="57">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -5610,7 +5657,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -5619,7 +5666,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="65"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -5640,7 +5687,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="64">
+      <c r="B22" s="57">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -5657,7 +5704,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="64"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -5665,7 +5712,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="65"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -5686,7 +5733,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="64">
+      <c r="B27" s="57">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -5703,7 +5750,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="64"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -5711,7 +5758,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -5732,7 +5779,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="64">
+      <c r="B32" s="57">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -5743,7 +5790,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -5751,7 +5798,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="65"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -5772,7 +5819,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="64">
+      <c r="B37" s="57">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -5783,7 +5830,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -5791,7 +5838,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="65"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -5828,24 +5875,24 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="64">
+      <c r="B44" s="57">
         <f>B37+1</f>
         <v>42877</v>
       </c>
-      <c r="C44" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>51</v>
+      <c r="C44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="64"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -5853,7 +5900,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="65"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -5879,24 +5926,24 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="64">
+      <c r="B49" s="57">
         <f>B44+1</f>
         <v>42878</v>
       </c>
-      <c r="C49" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="50" t="s">
-        <v>51</v>
+      <c r="C49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="64"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -5904,7 +5951,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="65"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -5930,32 +5977,38 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="64">
+      <c r="B54" s="57">
         <f>B49+1</f>
         <v>42879</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="50"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>56</v>
+      </c>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -5976,24 +6029,24 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="64">
+      <c r="B59" s="57">
         <f>B54+1</f>
         <v>42880</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="64"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -6001,7 +6054,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -6022,24 +6075,24 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="64">
+      <c r="B64" s="57">
         <f>B59+1</f>
         <v>42881</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="64"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -6047,7 +6100,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="65"/>
+      <c r="B66" s="58"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -6068,29 +6121,47 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="64">
+      <c r="B69" s="57">
         <f>B64+1</f>
         <v>42882</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="38"/>
+      <c r="C69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="38"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="66" t="s">
+        <v>66</v>
+      </c>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6108,7 +6179,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="64">
+      <c r="B74" s="57">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -6119,7 +6190,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -6127,7 +6198,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="65"/>
+      <c r="B76" s="58"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
@@ -6135,13 +6206,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6154,6 +6218,1054 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="61">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="62"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="63">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="57">
+        <f>E2</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="57">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="58"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="57">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="57">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="57">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="57">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="57">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="57">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="57">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="57">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="57">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="57">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="57">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="57">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="69">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>汉王手写笔迹校验技术合作交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅优质员工贷管理办法上会汇报</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅优质员工贷无纸化实施</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -898,12 +906,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -927,7 +930,12 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1222,11 +1230,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1235,14 +1243,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1289,10 +1297,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <v>2017</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1303,16 +1311,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1391,7 +1399,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="65">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1431,7 +1439,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1467,7 +1475,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1576,7 +1584,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1594,7 +1602,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1611,7 +1619,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1657,7 +1665,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1668,7 +1676,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1676,7 +1684,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1695,7 +1703,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1705,14 +1713,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1731,7 +1739,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1741,14 +1749,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1767,7 +1775,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1777,14 +1785,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1803,7 +1811,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1813,14 +1821,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1855,7 +1863,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1865,14 +1873,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1896,7 +1904,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1906,14 +1914,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1937,7 +1945,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1947,14 +1955,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1973,7 +1981,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1983,14 +1991,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2009,7 +2017,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2019,14 +2027,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2045,7 +2053,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2055,14 +2063,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2081,7 +2089,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2091,30 +2099,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2124,6 +2122,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2155,11 +2163,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2168,14 +2176,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2222,10 +2230,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <v>2017</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2236,16 +2244,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2324,7 +2332,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="65">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2370,7 +2378,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2406,7 +2414,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2515,7 +2523,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2539,7 +2547,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2556,7 +2564,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2602,7 +2610,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2619,7 +2627,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2627,7 +2635,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2646,7 +2654,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2662,14 +2670,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2688,7 +2696,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2704,14 +2712,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2730,7 +2738,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2746,14 +2754,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2772,7 +2780,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2788,14 +2796,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2830,7 +2838,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2846,14 +2854,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2877,7 +2885,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2893,7 +2901,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2906,7 +2914,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2930,7 +2938,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2946,14 +2954,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2972,7 +2980,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2988,14 +2996,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3014,7 +3022,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -3030,14 +3038,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3056,7 +3064,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -3066,14 +3074,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3092,7 +3100,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -3102,30 +3110,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3135,6 +3133,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3150,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -3166,11 +3174,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3179,14 +3187,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3233,10 +3241,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <v>2017</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3247,16 +3255,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3335,7 +3343,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="65">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3381,7 +3389,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3417,7 +3425,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3526,7 +3534,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3541,7 +3549,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3558,7 +3566,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3610,7 +3618,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3627,7 +3635,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3635,7 +3643,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3654,7 +3662,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3670,14 +3678,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3696,7 +3704,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3712,14 +3720,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3738,7 +3746,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3748,14 +3756,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3774,7 +3782,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3784,14 +3792,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3826,7 +3834,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3842,7 +3850,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3855,7 +3863,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3879,7 +3887,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3895,14 +3903,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3926,7 +3934,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3942,7 +3950,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3955,7 +3963,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3974,7 +3982,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3990,7 +3998,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4011,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4022,7 +4030,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -4038,7 +4046,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -4051,7 +4059,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4070,7 +4078,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -4080,14 +4088,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4106,7 +4114,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -4116,30 +4124,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4149,6 +4147,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4164,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4180,11 +4188,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4193,14 +4201,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4247,10 +4255,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <v>2017</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4261,16 +4269,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4349,7 +4357,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="65">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4359,9 +4367,10 @@
       <c r="D7" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="50" t="s">
         <v>38</v>
       </c>
+      <c r="F7" s="51"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
         <v>42862</v>
@@ -4395,16 +4404,17 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="50" t="s">
         <v>39</v>
       </c>
+      <c r="F8" s="51"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
         <v>42869</v>
@@ -4437,7 +4447,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4546,7 +4556,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4559,6 +4569,7 @@
       <c r="E12" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4570,10 +4581,11 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
       </c>
@@ -4587,10 +4599,11 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
       </c>
@@ -4633,7 +4646,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4643,14 +4656,15 @@
       <c r="D17" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="50" t="s">
         <v>41</v>
       </c>
+      <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4658,7 +4672,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4677,7 +4691,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4687,20 +4701,21 @@
       <c r="D22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="50" t="s">
         <v>42</v>
       </c>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4719,7 +4734,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4729,20 +4744,21 @@
       <c r="D27" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="50" t="s">
         <v>41</v>
       </c>
+      <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4761,7 +4777,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4769,24 +4785,24 @@
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20">
         <f>B37</f>
         <v>42862</v>
@@ -4795,9 +4811,9 @@
       <c r="D36" s="22"/>
       <c r="E36" s="23"/>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4805,24 +4821,24 @@
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
     </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="12" t="s">
         <v>5</v>
@@ -4837,8 +4853,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20">
         <f>B44</f>
         <v>42863</v>
@@ -4847,9 +4863,9 @@
       <c r="D43" s="22"/>
       <c r="E43" s="23"/>
     </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4863,34 +4879,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="30"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="20">
         <f>B49</f>
@@ -4900,9 +4917,9 @@
       <c r="D48" s="22"/>
       <c r="E48" s="23"/>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4912,32 +4929,33 @@
       <c r="D49" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="25" t="s">
+      <c r="E49" s="41" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="30"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="20">
         <f>B54</f>
@@ -4947,9 +4965,9 @@
       <c r="D53" s="22"/>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4957,30 +4975,32 @@
         <v>48</v>
       </c>
       <c r="D54" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-    </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="50"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
     </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
     </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20">
         <f>B59</f>
         <v>42866</v>
@@ -4989,9 +5009,9 @@
       <c r="D58" s="22"/>
       <c r="E58" s="23"/>
     </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -4999,30 +5019,32 @@
         <v>49</v>
       </c>
       <c r="D59" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-    </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="50"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
     </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
     </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="20">
         <f>B64</f>
         <v>42867</v>
@@ -5031,9 +5053,9 @@
       <c r="D63" s="22"/>
       <c r="E63" s="23"/>
     </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -5043,28 +5065,30 @@
       <c r="D64" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="41" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-    </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="50"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
     </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="30"/>
     </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="20">
         <f>B69</f>
         <v>42868</v>
@@ -5073,9 +5097,9 @@
       <c r="D68" s="22"/>
       <c r="E68" s="23"/>
     </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -5083,24 +5107,24 @@
       <c r="D69" s="25"/>
       <c r="E69" s="38"/>
     </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
     </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="30"/>
     </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20">
         <f>B74</f>
         <v>42869</v>
@@ -5109,9 +5133,9 @@
       <c r="D73" s="22"/>
       <c r="E73" s="23"/>
     </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -5119,22 +5143,29 @@
       <c r="D74" s="37"/>
       <c r="E74" s="38"/>
     </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5147,13 +5178,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5169,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5185,11 +5209,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5198,14 +5222,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5252,10 +5276,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <v>2017</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5266,16 +5290,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5355,7 +5379,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="65">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -5402,7 +5426,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -5439,7 +5463,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5549,7 +5573,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -5574,7 +5598,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -5592,7 +5616,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -5639,7 +5663,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -5657,7 +5681,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -5666,7 +5690,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -5687,7 +5711,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -5704,7 +5728,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -5712,7 +5736,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -5733,7 +5757,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -5750,7 +5774,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -5758,7 +5782,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -5779,7 +5803,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -5790,7 +5814,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -5798,7 +5822,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -5819,7 +5843,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -5830,7 +5854,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -5838,7 +5862,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -5875,7 +5899,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5892,7 +5916,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -5900,7 +5924,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -5926,7 +5950,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5943,7 +5967,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -5951,7 +5975,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -5977,7 +6001,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -5994,7 +6018,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="25" t="s">
         <v>56</v>
       </c>
@@ -6008,7 +6032,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -6029,7 +6053,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -6046,7 +6070,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -6054,7 +6078,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -6075,7 +6099,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -6092,7 +6116,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -6100,7 +6124,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -6121,7 +6145,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -6138,7 +6162,7 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="25" t="s">
         <v>59</v>
       </c>
@@ -6152,14 +6176,14 @@
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="66" t="s">
+      <c r="B71" s="66"/>
+      <c r="C71" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="66" t="s">
+      <c r="E71" s="57" t="s">
         <v>66</v>
       </c>
       <c r="F71" s="52"/>
@@ -6179,7 +6203,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -6190,7 +6214,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -6198,7 +6222,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
@@ -6206,6 +6230,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6218,13 +6249,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6256,11 +6280,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -6269,14 +6293,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6323,10 +6347,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="61">
+      <c r="L3" s="60">
         <v>2017</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6337,16 +6361,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="65"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6426,7 +6450,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="57">
+      <c r="B7" s="65">
         <f>E2</f>
         <v>42884</v>
       </c>
@@ -6473,7 +6497,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -6510,7 +6534,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -6620,7 +6644,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42885</v>
       </c>
@@ -6645,7 +6669,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -6663,7 +6687,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="58"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -6710,7 +6734,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="57">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42886</v>
       </c>
@@ -6728,7 +6752,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="57"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -6737,7 +6761,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="58"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -6758,7 +6782,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="57">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42887</v>
       </c>
@@ -6775,7 +6799,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="57"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -6783,7 +6807,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="58"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -6804,7 +6828,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="57">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42888</v>
       </c>
@@ -6821,7 +6845,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="57"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -6829,7 +6853,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="58"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -6850,7 +6874,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="57">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42889</v>
       </c>
@@ -6861,7 +6885,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="57"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -6869,7 +6893,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="58"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -6890,7 +6914,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="57">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42890</v>
       </c>
@@ -6901,7 +6925,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="57"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -6909,7 +6933,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="58"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -6946,7 +6970,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="57">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42891</v>
       </c>
@@ -6963,7 +6987,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="57"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -6971,7 +6995,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="58"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -6997,7 +7021,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="57">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42892</v>
       </c>
@@ -7014,7 +7038,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="57"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -7022,7 +7046,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="58"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -7048,7 +7072,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="57">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42893</v>
       </c>
@@ -7065,7 +7089,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="57"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
@@ -7073,7 +7097,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="58"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -7094,7 +7118,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="57">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42894</v>
       </c>
@@ -7111,7 +7135,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="57"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -7119,7 +7143,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="58"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -7140,7 +7164,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="57">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42895</v>
       </c>
@@ -7151,7 +7175,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="57"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -7159,7 +7183,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="58"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -7180,7 +7204,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="57">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42896</v>
       </c>
@@ -7191,7 +7215,7 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="57"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
@@ -7199,7 +7223,7 @@
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="58"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -7220,7 +7244,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="57">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42897</v>
       </c>
@@ -7231,7 +7255,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="57"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -7239,7 +7263,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="58"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
@@ -7247,6 +7271,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
@@ -7254,18 +7290,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="71">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>焦作中旅优质员工贷无纸化实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>百旺电子发票平台交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海分公司柜面无纸化+手写屏培训</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -907,6 +915,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -928,12 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1230,11 +1238,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1243,14 +1251,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1297,10 +1305,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <v>2017</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1311,16 +1319,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="62">
+      <c r="G4" s="64">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1399,7 +1407,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="65">
+      <c r="B7" s="58">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1439,7 +1447,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1475,7 +1483,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1584,7 +1592,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
+      <c r="B12" s="58">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1602,7 +1610,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1619,7 +1627,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1665,7 +1673,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="65">
+      <c r="B17" s="58">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1676,7 +1684,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1684,7 +1692,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1703,7 +1711,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="65">
+      <c r="B22" s="58">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1713,14 +1721,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1739,7 +1747,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="65">
+      <c r="B27" s="58">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1749,14 +1757,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1775,7 +1783,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="65">
+      <c r="B32" s="58">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1785,14 +1793,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1811,7 +1819,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="65">
+      <c r="B37" s="58">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1821,14 +1829,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1863,7 +1871,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="65">
+      <c r="B44" s="58">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1873,14 +1881,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1904,7 +1912,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="65">
+      <c r="B49" s="58">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1914,14 +1922,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1945,7 +1953,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="65">
+      <c r="B54" s="58">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1955,14 +1963,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1981,7 +1989,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="65">
+      <c r="B59" s="58">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1991,14 +1999,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2017,7 +2025,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="65">
+      <c r="B64" s="58">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2027,14 +2035,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2053,7 +2061,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="65">
+      <c r="B69" s="58">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2063,14 +2071,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2089,7 +2097,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="65">
+      <c r="B74" s="58">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2099,20 +2107,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2122,16 +2140,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2163,11 +2171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2176,14 +2184,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2230,10 +2238,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <v>2017</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2244,16 +2252,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="62">
+      <c r="G4" s="64">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2332,7 +2340,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="65">
+      <c r="B7" s="58">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2378,7 +2386,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2414,7 +2422,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2523,7 +2531,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
+      <c r="B12" s="58">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2547,7 +2555,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2564,7 +2572,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2610,7 +2618,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="65">
+      <c r="B17" s="58">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2627,7 +2635,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2635,7 +2643,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2654,7 +2662,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="65">
+      <c r="B22" s="58">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2670,14 +2678,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2696,7 +2704,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="65">
+      <c r="B27" s="58">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2712,14 +2720,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2738,7 +2746,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="65">
+      <c r="B32" s="58">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2754,14 +2762,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2780,7 +2788,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="65">
+      <c r="B37" s="58">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2796,14 +2804,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2838,7 +2846,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="65">
+      <c r="B44" s="58">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2854,14 +2862,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2885,7 +2893,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="65">
+      <c r="B49" s="58">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2901,7 +2909,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2914,7 +2922,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2938,7 +2946,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="65">
+      <c r="B54" s="58">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2954,14 +2962,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2980,7 +2988,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="65">
+      <c r="B59" s="58">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -2996,14 +3004,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3022,7 +3030,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="65">
+      <c r="B64" s="58">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -3038,14 +3046,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3064,7 +3072,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="65">
+      <c r="B69" s="58">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -3074,14 +3082,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3100,7 +3108,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="65">
+      <c r="B74" s="58">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -3110,20 +3118,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3133,16 +3151,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3174,11 +3182,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3187,14 +3195,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3241,10 +3249,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <v>2017</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3255,16 +3263,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="62">
+      <c r="G4" s="64">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3343,7 +3351,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="65">
+      <c r="B7" s="58">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3389,7 +3397,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3425,7 +3433,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3534,7 +3542,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
+      <c r="B12" s="58">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3549,7 +3557,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3566,7 +3574,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3618,7 +3626,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="65">
+      <c r="B17" s="58">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3635,7 +3643,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3643,7 +3651,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3662,7 +3670,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="65">
+      <c r="B22" s="58">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3678,14 +3686,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3704,7 +3712,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="65">
+      <c r="B27" s="58">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3720,14 +3728,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3746,7 +3754,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="65">
+      <c r="B32" s="58">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3756,14 +3764,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3782,7 +3790,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="65">
+      <c r="B37" s="58">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3792,14 +3800,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3834,7 +3842,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="65">
+      <c r="B44" s="58">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3850,7 +3858,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3863,7 +3871,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3887,7 +3895,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="65">
+      <c r="B49" s="58">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3903,14 +3911,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3934,7 +3942,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="65">
+      <c r="B54" s="58">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3950,7 +3958,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3963,7 +3971,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3982,7 +3990,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="65">
+      <c r="B59" s="58">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -3998,7 +4006,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -4011,7 +4019,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4030,7 +4038,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="65">
+      <c r="B64" s="58">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -4046,7 +4054,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -4059,7 +4067,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4078,7 +4086,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="65">
+      <c r="B69" s="58">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -4088,14 +4096,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4114,7 +4122,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="65">
+      <c r="B74" s="58">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -4124,20 +4132,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4147,16 +4165,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4188,11 +4196,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4201,14 +4209,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4255,10 +4263,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="62">
         <v>2017</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4269,16 +4277,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="62">
+      <c r="G4" s="64">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4357,7 +4365,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="65">
+      <c r="B7" s="58">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4404,7 +4412,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4447,7 +4455,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4556,7 +4564,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
+      <c r="B12" s="58">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4581,7 +4589,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -4599,7 +4607,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -4646,7 +4654,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="65">
+      <c r="B17" s="58">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4664,7 +4672,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4672,7 +4680,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4691,7 +4699,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="65">
+      <c r="B22" s="58">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4708,14 +4716,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4734,7 +4742,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="65">
+      <c r="B27" s="58">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4751,14 +4759,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4777,7 +4785,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="65">
+      <c r="B32" s="58">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4787,14 +4795,14 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4813,7 +4821,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="65">
+      <c r="B37" s="58">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4823,14 +4831,14 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4865,7 +4873,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="65">
+      <c r="B44" s="58">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4881,7 +4889,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -4895,7 +4903,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4919,7 +4927,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="65">
+      <c r="B49" s="58">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4936,14 +4944,14 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4967,7 +4975,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="65">
+      <c r="B54" s="58">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4984,7 +4992,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="50"/>
@@ -4992,7 +5000,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -5011,7 +5019,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="65">
+      <c r="B59" s="58">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -5028,7 +5036,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -5036,7 +5044,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -5055,7 +5063,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="65">
+      <c r="B64" s="58">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -5072,7 +5080,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
+      <c r="B65" s="58"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -5080,7 +5088,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5099,7 +5107,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="65">
+      <c r="B69" s="58">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -5109,14 +5117,14 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
+      <c r="B71" s="59"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5135,7 +5143,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="65">
+      <c r="B74" s="58">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -5145,17 +5153,2135 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
+      <c r="B75" s="58"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
+      <c r="B76" s="59"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>5</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="62">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="64">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="24">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="24">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="58">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="59"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="58"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="59"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="58">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="58">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="58">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="58">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="58">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="58">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="58">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="58">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="58">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="58">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="58">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="58">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="62">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="63"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="64">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="58">
+        <f>E2</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="59"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="58"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="59"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="58">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="58">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="58">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="58">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="58">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="58">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="58">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="58">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="58">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="58">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="58">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="58">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5187,2116 +7313,4 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42870</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42870</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>20</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>5</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="60">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="62">
-        <f>DATE(L3,I3,1)</f>
-        <v>42856</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42870</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v>42856</v>
-      </c>
-      <c r="I6" s="24">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v>42857</v>
-      </c>
-      <c r="J6" s="24">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v>42858</v>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42859</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42860</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42861</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="65">
-        <f>E2</f>
-        <v>42870</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42862</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42863</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42864</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42865</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42867</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42868</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42869</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42870</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42872</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42873</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42874</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42876</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42877</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42878</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42879</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42880</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42881</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42882</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42883</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42884</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42885</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42886</v>
-      </c>
-      <c r="K10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42871</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
-        <f>B7+1</f>
-        <v>42871</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42872</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="65">
-        <f>B12+1</f>
-        <v>42872</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42873</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="65">
-        <f>B17+1</f>
-        <v>42873</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42874</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="65">
-        <f>B22+1</f>
-        <v>42874</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42875</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="65">
-        <f>B27+1</f>
-        <v>42875</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42876</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="65">
-        <f>B32+1</f>
-        <v>42876</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42877</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42877</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="65">
-        <f>B37+1</f>
-        <v>42877</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42878</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="65">
-        <f>B44+1</f>
-        <v>42878</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42879</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="65">
-        <f>B49+1</f>
-        <v>42879</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42880</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="65">
-        <f>B54+1</f>
-        <v>42880</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42881</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="65">
-        <f>B59+1</f>
-        <v>42881</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42882</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="65">
-        <f>B64+1</f>
-        <v>42882</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42883</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="65">
-        <f>B69+1</f>
-        <v>42883</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42884</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42884</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>22</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="60">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="62">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42884</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="65">
-        <f>E2</f>
-        <v>42884</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42885</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
-        <f>B7+1</f>
-        <v>42885</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42886</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="65">
-        <f>B12+1</f>
-        <v>42886</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42887</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="65">
-        <f>B17+1</f>
-        <v>42887</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42888</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="65">
-        <f>B22+1</f>
-        <v>42888</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42889</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="65">
-        <f>B27+1</f>
-        <v>42889</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42890</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="65">
-        <f>B32+1</f>
-        <v>42890</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42891</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42891</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="65">
-        <f>B37+1</f>
-        <v>42891</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42892</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="65">
-        <f>B44+1</f>
-        <v>42892</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42893</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="65">
-        <f>B49+1</f>
-        <v>42893</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42894</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="65">
-        <f>B54+1</f>
-        <v>42894</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42895</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="65">
-        <f>B59+1</f>
-        <v>42895</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42896</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="65">
-        <f>B64+1</f>
-        <v>42896</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42897</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="65">
-        <f>B69+1</f>
-        <v>42897</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 12-13" sheetId="5" r:id="rId1"/>
-    <sheet name="Week 14-15" sheetId="6" r:id="rId2"/>
-    <sheet name="Week 16-17" sheetId="7" r:id="rId3"/>
-    <sheet name="Week 18-19" sheetId="8" r:id="rId4"/>
-    <sheet name="Week 20-21" sheetId="9" r:id="rId5"/>
-    <sheet name="Week 22-23" sheetId="10" r:id="rId6"/>
+    <sheet name="newest" sheetId="10" r:id="rId1"/>
+    <sheet name="DataSource" sheetId="11" r:id="rId2"/>
+    <sheet name="Week 12-13" sheetId="5" r:id="rId3"/>
+    <sheet name="Week 14-15" sheetId="6" r:id="rId4"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId5"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId6"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 12-13'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 14-15'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 16-17'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 18-19'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 20-21'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 22-23'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">newest!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 12-13'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 14-15'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 16-17'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 20-21'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="80">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -247,39 +248,74 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>阿里巴巴可信电子签名及解决方案交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>立白集团无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰集团无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉王手写笔迹校验技术合作交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅优质员工贷管理办法上会汇报</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦作中旅优质员工贷无纸化实施</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>百旺电子发票平台交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海分公司柜面无纸化+手写屏培训</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在司</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC手写签名控件及手写屏梳理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC手写签名控件及手写屏梳理</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>无纸化产品规划</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>阿里巴巴可信电子签名及解决方案交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>立白集团无纸化交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺丰集团无纸化交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉王手写笔迹校验技术合作交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦作中旅优质员工贷管理办法上会汇报</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦作中旅优质员工贷无纸化实施</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>百旺电子发票平台交流</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海分公司柜面无纸化+手写屏培训</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +331,7 @@
     <numFmt numFmtId="180" formatCode="dddd"/>
     <numFmt numFmtId="181" formatCode="d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +470,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -467,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -814,12 +866,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -915,17 +1109,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -942,6 +1150,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,6 +1472,1226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69:D71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="68">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="69"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="70">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="64">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="65"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="64">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="82"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="64"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="65"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="64">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="82"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="64">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="64">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="82"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="64">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="79"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="64">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="79"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="64">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="82"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="64">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="82"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="64">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="82"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="64">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="82"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="64">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="82"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="84"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="64">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="79"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="64">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="79"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="84"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C16:D16 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C73:D73</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:M4"/>
     </sheetView>
@@ -1238,11 +2708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1251,14 +2721,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1305,10 +2775,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="68">
         <v>2017</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1319,16 +2789,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="64">
+      <c r="G4" s="70">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1407,7 +2877,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="58">
+      <c r="B7" s="85">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1447,7 +2917,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -1483,7 +2953,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -1592,7 +3062,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="85">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1610,7 +3080,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -1627,7 +3097,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -1673,7 +3143,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="58">
+      <c r="B17" s="85">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1684,7 +3154,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1692,7 +3162,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -1711,7 +3181,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58">
+      <c r="B22" s="85">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1721,14 +3191,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -1747,7 +3217,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="58">
+      <c r="B27" s="85">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1757,14 +3227,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="58"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -1783,7 +3253,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="58">
+      <c r="B32" s="85">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1793,14 +3263,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -1819,7 +3289,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="58">
+      <c r="B37" s="85">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1829,14 +3299,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -1871,7 +3341,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="58">
+      <c r="B44" s="85">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1881,14 +3351,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="58"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="59"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -1912,7 +3382,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="58">
+      <c r="B49" s="85">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1922,14 +3392,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="58"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="59"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -1953,7 +3423,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="58">
+      <c r="B54" s="85">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1963,14 +3433,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="58"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="59"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -1989,7 +3459,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="58">
+      <c r="B59" s="85">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1999,14 +3469,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="58"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="59"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -2025,7 +3495,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="58">
+      <c r="B64" s="85">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2035,14 +3505,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="58"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="59"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -2061,7 +3531,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="58">
+      <c r="B69" s="85">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2071,14 +3541,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="59"/>
+      <c r="B71" s="86"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -2097,7 +3567,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="58">
+      <c r="B74" s="85">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2107,30 +3577,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="58"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="59"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -2140,6 +3600,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2151,7 +3621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -2171,11 +3641,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2184,14 +3654,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2238,10 +3708,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="68">
         <v>2017</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2252,16 +3722,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="64">
+      <c r="G4" s="70">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2340,7 +3810,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="58">
+      <c r="B7" s="85">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -2386,7 +3856,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2422,7 +3892,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -2531,7 +4001,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="85">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -2555,7 +4025,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -2572,7 +4042,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -2618,7 +4088,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="58">
+      <c r="B17" s="85">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -2635,7 +4105,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -2643,7 +4113,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -2662,7 +4132,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58">
+      <c r="B22" s="85">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -2678,14 +4148,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -2704,7 +4174,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="58">
+      <c r="B27" s="85">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -2720,14 +4190,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="58"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -2746,7 +4216,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="58">
+      <c r="B32" s="85">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -2762,14 +4232,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -2788,7 +4258,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="58">
+      <c r="B37" s="85">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -2804,14 +4274,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -2846,7 +4316,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="58">
+      <c r="B44" s="85">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -2862,14 +4332,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="58"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="59"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -2893,7 +4363,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="58">
+      <c r="B49" s="85">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -2909,7 +4379,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="58"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -2922,7 +4392,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="59"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -2946,7 +4416,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="58">
+      <c r="B54" s="85">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -2962,14 +4432,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="58"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="59"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -2988,7 +4458,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="58">
+      <c r="B59" s="85">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -3004,14 +4474,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="58"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="59"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3030,7 +4500,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="58">
+      <c r="B64" s="85">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -3046,14 +4516,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="58"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="59"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3072,7 +4542,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="58">
+      <c r="B69" s="85">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -3082,14 +4552,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="59"/>
+      <c r="B71" s="86"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3108,7 +4578,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="58">
+      <c r="B74" s="85">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -3118,30 +4588,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="58"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="59"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3151,6 +4611,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3162,7 +4632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -3182,11 +4652,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3195,14 +4665,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3249,10 +4719,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="68">
         <v>2017</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3263,16 +4733,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="64">
+      <c r="G4" s="70">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3351,7 +4821,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="58">
+      <c r="B7" s="85">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -3397,7 +4867,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3433,7 +4903,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3542,7 +5012,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="85">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -3557,7 +5027,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -3574,7 +5044,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -3626,7 +5096,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="58">
+      <c r="B17" s="85">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -3643,7 +5113,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -3651,7 +5121,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3670,7 +5140,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58">
+      <c r="B22" s="85">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -3686,14 +5156,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3712,7 +5182,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="58">
+      <c r="B27" s="85">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -3728,14 +5198,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="58"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3754,7 +5224,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="58">
+      <c r="B32" s="85">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -3764,14 +5234,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3790,7 +5260,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="58">
+      <c r="B37" s="85">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -3800,14 +5270,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3842,7 +5312,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="58">
+      <c r="B44" s="85">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -3858,7 +5328,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="58"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -3871,7 +5341,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="59"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3895,7 +5365,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="58">
+      <c r="B49" s="85">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -3911,14 +5381,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="58"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="59"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3942,7 +5412,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="58">
+      <c r="B54" s="85">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -3958,7 +5428,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="58"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -3971,7 +5441,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="59"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3990,7 +5460,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="58">
+      <c r="B59" s="85">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -4006,7 +5476,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="58"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -4019,7 +5489,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="59"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4038,7 +5508,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="58">
+      <c r="B64" s="85">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -4054,7 +5524,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="58"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -4067,7 +5537,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="59"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4086,7 +5556,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="58">
+      <c r="B69" s="85">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -4096,14 +5566,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="59"/>
+      <c r="B71" s="86"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4122,7 +5592,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="58">
+      <c r="B74" s="85">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -4132,30 +5602,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="58"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="59"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4165,6 +5625,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4176,7 +5646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -4196,11 +5666,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4209,14 +5679,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4263,10 +5733,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="68">
         <v>2017</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4277,16 +5747,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="64">
+      <c r="G4" s="70">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4365,7 +5835,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="58">
+      <c r="B7" s="85">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -4412,7 +5882,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -4455,7 +5925,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4564,7 +6034,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="85">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -4589,7 +6059,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -4607,7 +6077,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -4654,7 +6124,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="58">
+      <c r="B17" s="85">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -4672,7 +6142,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -4680,7 +6150,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4699,7 +6169,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58">
+      <c r="B22" s="85">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -4716,14 +6186,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4742,7 +6212,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="58">
+      <c r="B27" s="85">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -4759,14 +6229,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="58"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4785,7 +6255,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="58">
+      <c r="B32" s="85">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -4795,14 +6265,14 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4821,7 +6291,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="58">
+      <c r="B37" s="85">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -4831,14 +6301,14 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4873,7 +6343,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="58">
+      <c r="B44" s="85">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -4889,7 +6359,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="58"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -4903,7 +6373,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="59"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4927,7 +6397,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="58">
+      <c r="B49" s="85">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -4944,14 +6414,14 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="58"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="59"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4975,7 +6445,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="58">
+      <c r="B54" s="85">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -4983,7 +6453,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="41" t="s">
         <v>48</v>
@@ -4992,7 +6462,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="58"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="50"/>
@@ -5000,7 +6470,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="59"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -5019,7 +6489,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="58">
+      <c r="B59" s="85">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -5027,7 +6497,7 @@
         <v>49</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="41" t="s">
         <v>49</v>
@@ -5036,7 +6506,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="58"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -5044,7 +6514,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="59"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -5063,7 +6533,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="58">
+      <c r="B64" s="85">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -5080,7 +6550,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="58"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -5088,7 +6558,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="59"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5107,7 +6577,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="58">
+      <c r="B69" s="85">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -5117,14 +6587,14 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="59"/>
+      <c r="B71" s="86"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5143,7 +6613,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="58">
+      <c r="B74" s="85">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -5153,20 +6623,27 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="58"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="59"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -5179,13 +6656,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5197,7 +6667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -5217,11 +6687,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5230,14 +6700,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5284,10 +6754,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="68">
         <v>2017</v>
       </c>
-      <c r="M3" s="63"/>
+      <c r="M3" s="69"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5298,16 +6768,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="64">
+      <c r="G4" s="70">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5387,7 +6857,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="58">
+      <c r="B7" s="85">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -5434,7 +6904,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -5471,7 +6941,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5581,7 +7051,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
+      <c r="B12" s="85">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -5606,7 +7076,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -5624,7 +7094,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -5671,7 +7141,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="58">
+      <c r="B17" s="85">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -5689,7 +7159,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -5698,7 +7168,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -5719,7 +7189,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="58">
+      <c r="B22" s="85">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -5736,7 +7206,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -5744,7 +7214,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -5765,7 +7235,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="58">
+      <c r="B27" s="85">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -5782,7 +7252,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="58"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -5790,7 +7260,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="59"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -5811,7 +7281,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="58">
+      <c r="B32" s="85">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -5822,7 +7292,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -5830,7 +7300,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="86"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -5851,7 +7321,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="58">
+      <c r="B37" s="85">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -5862,7 +7332,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -5870,7 +7340,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="59"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -5907,7 +7377,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="58">
+      <c r="B44" s="85">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -5924,7 +7394,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="58"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -5932,7 +7402,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="59"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -5958,7 +7428,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="58">
+      <c r="B49" s="85">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -5975,7 +7445,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="58"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -5983,7 +7453,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="59"/>
+      <c r="B51" s="86"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -6009,7 +7479,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="58">
+      <c r="B54" s="85">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -6026,7 +7496,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="58"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="25" t="s">
         <v>56</v>
       </c>
@@ -6040,7 +7510,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="59"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -6061,7 +7531,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="58">
+      <c r="B59" s="85">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -6078,7 +7548,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="58"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -6086,7 +7556,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="59"/>
+      <c r="B61" s="86"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -6107,7 +7577,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="58">
+      <c r="B64" s="85">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -6124,7 +7594,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="58"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -6132,7 +7602,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="59"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -6153,7 +7623,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="58">
+      <c r="B69" s="85">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -6170,7 +7640,7 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
+      <c r="B70" s="85"/>
       <c r="C70" s="25" t="s">
         <v>59</v>
       </c>
@@ -6184,15 +7654,15 @@
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="59"/>
+      <c r="B71" s="86"/>
       <c r="C71" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F71" s="52"/>
     </row>
@@ -6211,7 +7681,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="58">
+      <c r="B74" s="85">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -6222,7 +7692,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="58"/>
+      <c r="B75" s="85"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -6230,1054 +7700,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42884</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42884</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>22</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="62">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="64">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42884</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="58">
-        <f>E2</f>
-        <v>42884</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42885</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="58">
-        <f>B7+1</f>
-        <v>42885</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="58"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42886</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="58">
-        <f>B12+1</f>
-        <v>42886</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42887</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="58">
-        <f>B17+1</f>
-        <v>42887</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42888</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="58">
-        <f>B22+1</f>
-        <v>42888</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42889</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="58">
-        <f>B27+1</f>
-        <v>42889</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42890</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="58">
-        <f>B32+1</f>
-        <v>42890</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42891</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14">
-        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42891</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="58">
-        <f>B37+1</f>
-        <v>42891</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42892</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="58">
-        <f>B44+1</f>
-        <v>42892</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42893</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="58">
-        <f>B49+1</f>
-        <v>42893</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42894</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="58">
-        <f>B54+1</f>
-        <v>42894</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42895</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="58">
-        <f>B59+1</f>
-        <v>42895</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42896</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="58">
-        <f>B64+1</f>
-        <v>42896</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42897</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="58">
-        <f>B69+1</f>
-        <v>42897</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="59"/>
+      <c r="B76" s="86"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -12,21 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="newest" sheetId="10" r:id="rId1"/>
-    <sheet name="DataSource" sheetId="11" r:id="rId2"/>
-    <sheet name="Week 12-13" sheetId="5" r:id="rId3"/>
-    <sheet name="Week 14-15" sheetId="6" r:id="rId4"/>
-    <sheet name="Week 16-17" sheetId="7" r:id="rId5"/>
-    <sheet name="Week 18-19" sheetId="8" r:id="rId6"/>
-    <sheet name="Week 20-21" sheetId="9" r:id="rId7"/>
+    <sheet name="newest" sheetId="12" r:id="rId1"/>
+    <sheet name="Week 22 - 23" sheetId="10" r:id="rId2"/>
+    <sheet name="DataSource" sheetId="11" r:id="rId3"/>
+    <sheet name="Week 12-13" sheetId="5" r:id="rId4"/>
+    <sheet name="Week 14-15" sheetId="6" r:id="rId5"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId6"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId7"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">newest!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 12-13'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 14-15'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 16-17'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 18-19'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 12-13'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 14-15'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 16-17'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 22 - 23'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="83">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -316,6 +318,18 @@
   </si>
   <si>
     <t>立白集团无纸化交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>百信银行标书编制</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流行业峰会ppt编制</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加物流行业峰会</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1123,17 +1137,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1159,33 +1203,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:D71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1487,12 +1504,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="64"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1500,20 +1517,20 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8">
         <f>C3</f>
-        <v>42884</v>
+        <v>42898</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>3</v>
@@ -1535,12 +1552,12 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>42884</v>
+        <v>42898</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="11"/>
@@ -1554,10 +1571,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="78">
         <v>2017</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1568,16 +1585,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="70">
+      <c r="G4" s="80">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1616,7 +1633,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
         <f>B7</f>
-        <v>42884</v>
+        <v>42898</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>73</v>
@@ -1661,17 +1678,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="64">
+      <c r="B7" s="74">
         <f>C3</f>
-        <v>42884</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="82"/>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="65"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1706,10 +1723,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1743,10 +1760,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="65"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="84"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1818,7 +1835,7 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20">
         <f>B12</f>
-        <v>42885</v>
+        <v>42899</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>73</v>
@@ -1862,17 +1879,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="64">
+      <c r="B12" s="74">
         <f>B7+1</f>
-        <v>42885</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="82"/>
+        <v>42899</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="65"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1885,10 +1902,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="64"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="83"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1903,10 +1920,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="84"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -1941,7 +1958,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="20">
         <f>B17</f>
-        <v>42886</v>
+        <v>42900</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>70</v>
@@ -1959,35 +1976,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="64">
+      <c r="B17" s="74">
         <f>B12+1</f>
-        <v>42886</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="82"/>
+        <v>42900</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="65"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="83"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="84"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1999,7 +2016,7 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20">
         <f>B22</f>
-        <v>42887</v>
+        <v>42901</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>70</v>
@@ -2014,33 +2031,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="64">
+      <c r="B22" s="74">
         <f>B17+1</f>
-        <v>42887</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="82"/>
+        <v>42901</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="65"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="83"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="84"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2052,7 +2069,7 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20">
         <f>B27</f>
-        <v>42888</v>
+        <v>42902</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>70</v>
@@ -2067,33 +2084,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="64">
+      <c r="B27" s="74">
         <f>B22+1</f>
-        <v>42888</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="82"/>
+        <v>42902</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="65"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="84"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2105,7 +2122,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20">
         <f>B32</f>
-        <v>42889</v>
+        <v>42903</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>73</v>
@@ -2120,29 +2137,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="64">
+      <c r="B32" s="74">
         <f>B27+1</f>
-        <v>42889</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="82"/>
+        <v>42903</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="83"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="84"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2154,7 +2171,7 @@
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20">
         <f>B37</f>
-        <v>42890</v>
+        <v>42904</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>73</v>
@@ -2169,29 +2186,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="64">
+      <c r="B37" s="74">
         <f>B32+1</f>
-        <v>42890</v>
-      </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="82"/>
+        <v>42904</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="65"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="83"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="84"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2204,7 +2221,7 @@
       </c>
       <c r="C41" s="13">
         <f>C3+7</f>
-        <v>42891</v>
+        <v>42905</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2213,7 +2230,7 @@
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20">
         <f>B44</f>
-        <v>42891</v>
+        <v>42905</v>
       </c>
       <c r="C43" s="61" t="s">
         <v>70</v>
@@ -2228,33 +2245,29 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="64">
+      <c r="B44" s="74">
         <f>B37+1</f>
-        <v>42891</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="82"/>
+        <v>42905</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="83"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="84"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,14 +2281,10 @@
       <c r="A48" s="2"/>
       <c r="B48" s="20">
         <f>B49</f>
-        <v>42892</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>70</v>
-      </c>
+        <v>42906</v>
+      </c>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="61" t="s">
         <v>75</v>
       </c>
@@ -2283,33 +2292,29 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="64">
+      <c r="B49" s="74">
         <f>B44+1</f>
-        <v>42892</v>
-      </c>
-      <c r="C49" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="82"/>
+        <v>42906</v>
+      </c>
+      <c r="C49" s="68"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="83"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="84"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2323,14 +2328,10 @@
       <c r="A53" s="2"/>
       <c r="B53" s="20">
         <f>B54</f>
-        <v>42893</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>70</v>
-      </c>
+        <v>42907</v>
+      </c>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="61" t="s">
         <v>75</v>
       </c>
@@ -2338,33 +2339,29 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="64">
+      <c r="B54" s="74">
         <f>B49+1</f>
-        <v>42893</v>
-      </c>
-      <c r="C54" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="82"/>
+        <v>42907</v>
+      </c>
+      <c r="C54" s="68"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="83"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="84"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="67"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2376,14 +2373,10 @@
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20">
         <f>B59</f>
-        <v>42894</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>70</v>
-      </c>
+        <v>42908</v>
+      </c>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="61" t="s">
         <v>75</v>
       </c>
@@ -2391,33 +2384,29 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="64">
+      <c r="B59" s="74">
         <f>B54+1</f>
-        <v>42894</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="82"/>
+        <v>42908</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="65"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="83"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="84"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,14 +2418,10 @@
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="20">
         <f>B64</f>
-        <v>42895</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>70</v>
-      </c>
+        <v>42909</v>
+      </c>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
       <c r="E63" s="61" t="s">
         <v>75</v>
       </c>
@@ -2444,33 +2429,29 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="64">
+      <c r="B64" s="74">
         <f>B59+1</f>
-        <v>42895</v>
-      </c>
-      <c r="C64" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="82"/>
+        <v>42909</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="83"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="81"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="84"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="67"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2482,7 +2463,7 @@
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="20">
         <f>B69</f>
-        <v>42896</v>
+        <v>42910</v>
       </c>
       <c r="C68" s="61" t="s">
         <v>73</v>
@@ -2497,29 +2478,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="64">
+      <c r="B69" s="74">
         <f>B64+1</f>
-        <v>42896</v>
-      </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="82"/>
+        <v>42910</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="64"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="83"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="84"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="67"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,7 +2512,7 @@
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20">
         <f>B74</f>
-        <v>42897</v>
+        <v>42911</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>73</v>
@@ -2546,80 +2527,86 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="64">
+      <c r="B74" s="74">
         <f>B69+1</f>
-        <v>42897</v>
-      </c>
-      <c r="C74" s="79"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="82"/>
+        <v>42911</v>
+      </c>
+      <c r="C74" s="68"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="65"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="83"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="84"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="67"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="C74:C76"/>
     <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
     <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C22:C24"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -2627,13 +2614,7 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2659,6 +2640,1195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="78">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="79"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="80">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="74">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="65"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="75"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="74">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="74"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="75"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="74">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="74">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="65"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="74">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="74">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="74">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="74">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="74">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="65"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="74">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="65"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="74">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="65"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="74">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="65"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="74">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="74">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="68"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C16:D16 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C73:D73</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2688,7 +3858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -2708,11 +3878,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2721,14 +3891,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2775,10 +3945,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="78">
         <v>2017</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2789,16 +3959,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="70">
+      <c r="G4" s="80">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2877,7 +4047,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="85">
+      <c r="B7" s="86">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2917,7 +4087,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -2953,7 +4123,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -3062,7 +4232,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85">
+      <c r="B12" s="86">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -3080,7 +4250,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -3097,7 +4267,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -3143,7 +4313,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="85">
+      <c r="B17" s="86">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -3154,7 +4324,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -3162,7 +4332,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -3181,7 +4351,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="85">
+      <c r="B22" s="86">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -3191,14 +4361,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -3217,7 +4387,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="85">
+      <c r="B27" s="86">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -3227,14 +4397,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -3253,7 +4423,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="85">
+      <c r="B32" s="86">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -3263,14 +4433,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -3289,7 +4459,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="85">
+      <c r="B37" s="86">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -3299,14 +4469,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -3341,7 +4511,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="85">
+      <c r="B44" s="86">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -3351,14 +4521,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="85"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -3382,7 +4552,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="85">
+      <c r="B49" s="86">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -3392,14 +4562,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="86"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -3423,7 +4593,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="85">
+      <c r="B54" s="86">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -3433,14 +4603,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="85"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="86"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -3459,7 +4629,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="85">
+      <c r="B59" s="86">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -3469,14 +4639,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="85"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="86"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -3495,7 +4665,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="85">
+      <c r="B64" s="86">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -3505,14 +4675,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="85"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="86"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -3531,7 +4701,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="85">
+      <c r="B69" s="86">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -3541,14 +4711,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="85"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -3567,7 +4737,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="85">
+      <c r="B74" s="86">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -3577,20 +4747,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="85"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="86"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -3600,16 +4780,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3621,7 +4791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -3641,11 +4811,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3654,14 +4824,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3708,10 +4878,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="78">
         <v>2017</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3722,16 +4892,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="70">
+      <c r="G4" s="80">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -3810,7 +4980,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="85">
+      <c r="B7" s="86">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -3856,7 +5026,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -3892,7 +5062,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4001,7 +5171,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85">
+      <c r="B12" s="86">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -4025,7 +5195,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -4042,7 +5212,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -4088,7 +5258,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="85">
+      <c r="B17" s="86">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -4105,7 +5275,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -4113,7 +5283,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4132,7 +5302,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="85">
+      <c r="B22" s="86">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -4148,14 +5318,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4174,7 +5344,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="85">
+      <c r="B27" s="86">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -4190,14 +5360,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4216,7 +5386,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="85">
+      <c r="B32" s="86">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -4232,14 +5402,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4258,7 +5428,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="85">
+      <c r="B37" s="86">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -4274,14 +5444,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4316,7 +5486,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="85">
+      <c r="B44" s="86">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -4332,14 +5502,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="85"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4363,7 +5533,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="85">
+      <c r="B49" s="86">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -4379,7 +5549,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -4392,7 +5562,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="86"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4416,7 +5586,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="85">
+      <c r="B54" s="86">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -4432,14 +5602,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="85"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="86"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4458,7 +5628,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="85">
+      <c r="B59" s="86">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -4474,14 +5644,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="85"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="86"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4500,7 +5670,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="85">
+      <c r="B64" s="86">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -4516,14 +5686,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="85"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="86"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4542,7 +5712,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="85">
+      <c r="B69" s="86">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -4552,14 +5722,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="85"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4578,7 +5748,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="85">
+      <c r="B74" s="86">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -4588,20 +5758,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="85"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="86"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4611,16 +5791,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4632,7 +5802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -4652,11 +5822,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4665,14 +5835,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4719,10 +5889,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="78">
         <v>2017</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4733,16 +5903,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="70">
+      <c r="G4" s="80">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4821,7 +5991,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="85">
+      <c r="B7" s="86">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -4867,7 +6037,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -4903,7 +6073,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5012,7 +6182,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85">
+      <c r="B12" s="86">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -5027,7 +6197,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -5044,7 +6214,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -5096,7 +6266,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="85">
+      <c r="B17" s="86">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -5113,7 +6283,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -5121,7 +6291,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -5140,7 +6310,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="85">
+      <c r="B22" s="86">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -5156,14 +6326,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -5182,7 +6352,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="85">
+      <c r="B27" s="86">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -5198,14 +6368,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -5224,7 +6394,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="85">
+      <c r="B32" s="86">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -5234,14 +6404,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -5260,7 +6430,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="85">
+      <c r="B37" s="86">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -5270,14 +6440,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -5312,7 +6482,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="85">
+      <c r="B44" s="86">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -5328,7 +6498,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="85"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -5341,7 +6511,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -5365,7 +6535,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="85">
+      <c r="B49" s="86">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -5381,14 +6551,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="86"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -5412,7 +6582,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="85">
+      <c r="B54" s="86">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -5428,7 +6598,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="85"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -5441,7 +6611,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="86"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -5460,7 +6630,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="85">
+      <c r="B59" s="86">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -5476,7 +6646,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="85"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -5489,7 +6659,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="86"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -5508,7 +6678,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="85">
+      <c r="B64" s="86">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -5524,7 +6694,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="85"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -5537,7 +6707,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="86"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5556,7 +6726,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="85">
+      <c r="B69" s="86">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -5566,14 +6736,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="85"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5592,7 +6762,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="85">
+      <c r="B74" s="86">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -5602,20 +6772,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="85"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="86"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -5625,16 +6805,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5646,7 +6816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -5666,11 +6836,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5679,14 +6849,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5733,10 +6903,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="78">
         <v>2017</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5747,16 +6917,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="70">
+      <c r="G4" s="80">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5835,7 +7005,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="85">
+      <c r="B7" s="86">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -5882,7 +7052,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -5925,7 +7095,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -6034,7 +7204,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85">
+      <c r="B12" s="86">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -6059,7 +7229,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -6077,7 +7247,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -6124,7 +7294,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="85">
+      <c r="B17" s="86">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -6142,7 +7312,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -6150,7 +7320,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -6169,7 +7339,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="85">
+      <c r="B22" s="86">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -6186,14 +7356,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -6212,7 +7382,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="85">
+      <c r="B27" s="86">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -6229,14 +7399,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -6255,7 +7425,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="85">
+      <c r="B32" s="86">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -6265,14 +7435,14 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -6291,7 +7461,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="85">
+      <c r="B37" s="86">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -6301,14 +7471,14 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -6343,7 +7513,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="85">
+      <c r="B44" s="86">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -6359,7 +7529,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="85"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -6373,7 +7543,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -6397,7 +7567,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="85">
+      <c r="B49" s="86">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -6414,14 +7584,14 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="86"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -6445,7 +7615,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="85">
+      <c r="B54" s="86">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -6462,7 +7632,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="85"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="50"/>
@@ -6470,7 +7640,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="86"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -6489,7 +7659,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="85">
+      <c r="B59" s="86">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -6506,7 +7676,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="85"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -6514,7 +7684,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="86"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -6533,7 +7703,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="85">
+      <c r="B64" s="86">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -6550,7 +7720,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="85"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -6558,7 +7728,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="86"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -6577,7 +7747,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="85">
+      <c r="B69" s="86">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -6587,14 +7757,14 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="85"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -6613,7 +7783,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="85">
+      <c r="B74" s="86">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -6623,27 +7793,20 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="85"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="86"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -6656,6 +7819,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6667,7 +7837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -6687,11 +7857,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -6700,14 +7870,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6754,10 +7924,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="68">
+      <c r="L3" s="78">
         <v>2017</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6768,16 +7938,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="70">
+      <c r="G4" s="80">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6857,7 +8027,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="85">
+      <c r="B7" s="86">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -6904,7 +8074,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -6941,7 +8111,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -7051,7 +8221,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85">
+      <c r="B12" s="86">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -7076,7 +8246,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -7094,7 +8264,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -7141,7 +8311,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="85">
+      <c r="B17" s="86">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -7159,7 +8329,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -7168,7 +8338,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="86"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -7189,7 +8359,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="85">
+      <c r="B22" s="86">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -7206,7 +8376,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -7214,7 +8384,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -7235,7 +8405,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="85">
+      <c r="B27" s="86">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -7252,7 +8422,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -7260,7 +8430,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="87"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -7281,7 +8451,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="85">
+      <c r="B32" s="86">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -7292,7 +8462,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="85"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -7300,7 +8470,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="87"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -7321,7 +8491,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="85">
+      <c r="B37" s="86">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -7332,7 +8502,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -7340,7 +8510,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -7377,7 +8547,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="85">
+      <c r="B44" s="86">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -7394,7 +8564,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="85"/>
+      <c r="B45" s="86"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -7402,7 +8572,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -7428,7 +8598,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="85">
+      <c r="B49" s="86">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -7445,7 +8615,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="85"/>
+      <c r="B50" s="86"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -7453,7 +8623,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="86"/>
+      <c r="B51" s="87"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -7479,7 +8649,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="85">
+      <c r="B54" s="86">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -7496,7 +8666,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="85"/>
+      <c r="B55" s="86"/>
       <c r="C55" s="25" t="s">
         <v>56</v>
       </c>
@@ -7510,7 +8680,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="86"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -7531,7 +8701,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="85">
+      <c r="B59" s="86">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -7548,7 +8718,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="85"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -7556,7 +8726,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="86"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -7577,7 +8747,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="85">
+      <c r="B64" s="86">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -7594,7 +8764,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="85"/>
+      <c r="B65" s="86"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -7602,7 +8772,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="86"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -7623,7 +8793,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="85">
+      <c r="B69" s="86">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -7640,7 +8810,7 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="85"/>
+      <c r="B70" s="86"/>
       <c r="C70" s="25" t="s">
         <v>59</v>
       </c>
@@ -7654,7 +8824,7 @@
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="86"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="57" t="s">
         <v>65</v>
       </c>
@@ -7681,7 +8851,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="85">
+      <c r="B74" s="86">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -7692,7 +8862,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="85"/>
+      <c r="B75" s="86"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -7700,7 +8870,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="86"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
@@ -7708,13 +8878,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7727,6 +8890,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="84">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>参加物流行业峰会</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>票交所票据业务实操、电子票据风险防控、电子票据业务最新政策解析</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1140,14 +1144,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1167,11 +1168,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1490,7 +1494,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D29"/>
+      <selection activeCell="E37" sqref="E37:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1682,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="74">
+      <c r="B7" s="65">
         <f>C3</f>
         <v>42898</v>
       </c>
@@ -1688,7 +1692,7 @@
       <c r="D7" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1723,10 +1727,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="74"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
-      <c r="E8" s="66"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1760,10 +1764,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="75"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="E9" s="67"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1879,17 +1883,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="74">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42899</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1902,10 +1906,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="74"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1920,10 +1924,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="75"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -1976,35 +1980,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="74">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42900</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,33 +2035,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="74">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42901</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="66"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2084,33 +2088,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="74">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42902</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="66"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="67"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2137,29 +2141,35 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="74">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42903</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="65"/>
+      <c r="C32" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>83</v>
+      </c>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="66"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="67"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,29 +2196,35 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="74">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42904</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="65"/>
+      <c r="C37" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>83</v>
+      </c>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="66"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="67"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2245,29 +2261,29 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="74">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42905</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="65"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="66"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="67"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="75"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2292,29 +2308,29 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="74">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42906</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="65"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="66"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="67"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2339,29 +2355,29 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="74">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42907</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="71"/>
-      <c r="E54" s="65"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="66"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="67"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2384,29 +2400,29 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="74">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42908</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="65"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="73"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="66"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="67"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2429,29 +2445,29 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="74">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42909</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="65"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="66"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="67"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2478,29 +2494,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="74">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42910</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="65"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="73"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="66"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="67"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="75"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2527,33 +2543,82 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="74">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42911</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="65"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="73"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="66"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="67"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="75"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="C74:C76"/>
     <mergeCell ref="D74:D76"/>
@@ -2566,55 +2631,6 @@
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="D69:D71"/>
     <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2831,17 +2847,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="74">
+      <c r="B7" s="65">
         <f>C3</f>
         <v>42884</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="65"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -2876,10 +2892,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="74"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="84"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -2913,10 +2929,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="75"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="85"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -3032,17 +3048,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="74">
+      <c r="B12" s="65">
         <f>B7+1</f>
         <v>42885</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3055,10 +3071,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="74"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -3073,10 +3089,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="75"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -3129,35 +3145,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="74">
+      <c r="B17" s="65">
         <f>B12+1</f>
         <v>42886</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3184,33 +3200,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="74">
+      <c r="B22" s="65">
         <f>B17+1</f>
         <v>42887</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="66"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3237,33 +3253,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="74">
+      <c r="B27" s="65">
         <f>B22+1</f>
         <v>42888</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="66"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="67"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3290,29 +3306,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="74">
+      <c r="B32" s="65">
         <f>B27+1</f>
         <v>42889</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="65"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="66"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="67"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3339,29 +3355,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="74">
+      <c r="B37" s="65">
         <f>B32+1</f>
         <v>42890</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="65"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="66"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="67"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3398,33 +3414,33 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="74">
+      <c r="B44" s="65">
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="71" t="s">
+      <c r="D44" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="65"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="66"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="67"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="75"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3453,33 +3469,33 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="74">
+      <c r="B49" s="65">
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="65"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="66"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="74"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="67"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3508,33 +3524,33 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="74">
+      <c r="B54" s="65">
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="65"/>
+      <c r="E54" s="73"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="66"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="67"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="75"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3561,33 +3577,33 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="74">
+      <c r="B59" s="65">
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="65"/>
+      <c r="E59" s="73"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="66"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="74"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="67"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3614,33 +3630,33 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="74">
+      <c r="B64" s="65">
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="65"/>
+      <c r="E64" s="73"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="66"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="74"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="67"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="75"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,29 +3683,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="74">
+      <c r="B69" s="65">
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="65"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="73"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="66"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="67"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="75"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3716,47 +3732,64 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="74">
+      <c r="B74" s="65">
         <f>B69+1</f>
         <v>42897</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="65"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="73"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="66"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="74"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="67"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="69"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="75"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -3773,37 +3806,20 @@
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4761,16 +4777,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4780,6 +4786,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5772,16 +5788,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -5791,6 +5797,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6786,16 +6802,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -6805,6 +6811,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7807,6 +7823,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7819,13 +7842,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8878,6 +8894,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -8890,13 +8913,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="86">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -333,8 +333,15 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>票交所票据业务实操、电子票据风险防控、电子票据业务最新政策解析</t>
+    <t>昆仑银行柜面无纸化交流</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化产品规划</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在司</t>
   </si>
 </sst>
 </file>
@@ -1150,22 +1157,13 @@
     <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1200,13 +1198,22 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1493,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1508,11 +1515,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="64"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1521,14 +1528,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1575,10 +1582,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1589,16 +1596,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1686,13 +1693,13 @@
         <f>C3</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1728,9 +1735,9 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="65"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1765,9 +1772,9 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="75"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1887,13 +1894,13 @@
         <f>B7+1</f>
         <v>42899</v>
       </c>
-      <c r="C12" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="73"/>
+      <c r="C12" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="70"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1907,9 +1914,9 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="74"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1925,9 +1932,9 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -1984,31 +1991,31 @@
         <f>B12+1</f>
         <v>42900</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="65"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="74"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="66"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="75"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2039,29 +2046,29 @@
         <f>B17+1</f>
         <v>42901</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="66"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="75"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2092,29 +2099,29 @@
         <f>B22+1</f>
         <v>42902</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="65"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="74"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="66"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="75"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2145,31 +2152,25 @@
         <f>B27+1</f>
         <v>42903</v>
       </c>
-      <c r="C32" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="67" t="s">
-        <v>83</v>
-      </c>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="65"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="66"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2200,31 +2201,25 @@
         <f>B32+1</f>
         <v>42904</v>
       </c>
-      <c r="C37" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>83</v>
-      </c>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="65"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="66"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2249,10 +2244,10 @@
         <v>42905</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E43" s="61" t="s">
         <v>75</v>
@@ -2265,25 +2260,29 @@
         <f>B37+1</f>
         <v>42905</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="73"/>
+      <c r="C44" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="70"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="65"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="74"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="66"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="75"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2299,8 +2298,12 @@
         <f>B49</f>
         <v>42906</v>
       </c>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
       <c r="E48" s="61" t="s">
         <v>75</v>
       </c>
@@ -2312,25 +2315,29 @@
         <f>B44+1</f>
         <v>42906</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="73"/>
+      <c r="C49" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="70"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="65"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="74"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="66"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="75"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2346,8 +2353,12 @@
         <f>B54</f>
         <v>42907</v>
       </c>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
+      <c r="C53" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>85</v>
+      </c>
       <c r="E53" s="61" t="s">
         <v>75</v>
       </c>
@@ -2359,25 +2370,29 @@
         <f>B49+1</f>
         <v>42907</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="73"/>
+      <c r="C54" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" s="70"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="65"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="74"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="66"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="75"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2391,8 +2406,12 @@
         <f>B59</f>
         <v>42908</v>
       </c>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
+      <c r="C58" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>85</v>
+      </c>
       <c r="E58" s="61" t="s">
         <v>75</v>
       </c>
@@ -2404,25 +2423,29 @@
         <f>B54+1</f>
         <v>42908</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="73"/>
+      <c r="C59" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="70"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="65"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="74"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="71"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="66"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="75"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="72"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,8 +2459,12 @@
         <f>B64</f>
         <v>42909</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
+      <c r="C63" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>85</v>
+      </c>
       <c r="E63" s="61" t="s">
         <v>75</v>
       </c>
@@ -2449,25 +2476,29 @@
         <f>B59+1</f>
         <v>42909</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="73"/>
+      <c r="C64" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="70"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="65"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="74"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="71"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="66"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="75"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,25 +2529,25 @@
         <f>B64+1</f>
         <v>42910</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="73"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="65"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="74"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="71"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="66"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="75"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2547,74 +2578,29 @@
         <f>B69+1</f>
         <v>42911</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="73"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="65"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="74"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="71"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="66"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="75"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>
@@ -2631,6 +2617,51 @@
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="D69:D71"/>
     <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2673,11 +2704,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="58"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -2686,14 +2717,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2740,10 +2771,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -2754,16 +2785,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -2851,13 +2882,13 @@
         <f>C3</f>
         <v>42884</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -2893,9 +2924,9 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="65"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="74"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -2930,9 +2961,9 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -3052,13 +3083,13 @@
         <f>B7+1</f>
         <v>42885</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3072,9 +3103,9 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="74"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -3090,9 +3121,9 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="66"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -3149,31 +3180,31 @@
         <f>B12+1</f>
         <v>42886</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="65"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="74"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="66"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="75"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3204,29 +3235,29 @@
         <f>B17+1</f>
         <v>42887</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="73"/>
+      <c r="E22" s="70"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="65"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="66"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="75"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,29 +3288,29 @@
         <f>B22+1</f>
         <v>42888</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="65"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="74"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="66"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="75"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3310,25 +3341,25 @@
         <f>B27+1</f>
         <v>42889</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="65"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="74"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="66"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="75"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3359,25 +3390,25 @@
         <f>B32+1</f>
         <v>42890</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="73"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="70"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="65"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="74"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="66"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="75"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3418,29 +3449,29 @@
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="73"/>
+      <c r="E44" s="70"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="65"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="74"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="71"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="66"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="75"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3473,29 +3504,29 @@
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="73"/>
+      <c r="E49" s="70"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="65"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="74"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="71"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="66"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="75"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3528,29 +3559,29 @@
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="73"/>
+      <c r="E54" s="70"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="65"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="71"/>
-      <c r="E55" s="74"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="66"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="75"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3581,29 +3612,29 @@
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="73"/>
+      <c r="E59" s="70"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="65"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="74"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="71"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="66"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="75"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="72"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3634,29 +3665,29 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="D64" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="73"/>
+      <c r="E64" s="70"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="65"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="74"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="71"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="66"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="75"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="72"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3687,25 +3718,25 @@
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="73"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="65"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="74"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="71"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="66"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="75"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3736,60 +3767,43 @@
         <f>B69+1</f>
         <v>42897</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="73"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="70"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="65"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="74"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="71"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="66"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="75"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="72"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -3806,20 +3820,37 @@
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3894,11 +3925,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3907,14 +3938,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3961,10 +3992,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3975,16 +4006,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4777,6 +4808,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4786,16 +4827,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4827,11 +4858,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4840,14 +4871,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4894,10 +4925,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4908,16 +4939,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5788,6 +5819,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -5797,16 +5838,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5838,11 +5869,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5851,14 +5882,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5905,10 +5936,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5919,16 +5950,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6802,6 +6833,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -6811,16 +6852,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6852,11 +6883,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -6865,14 +6896,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6919,10 +6950,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6933,16 +6964,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -7823,13 +7854,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7842,6 +7866,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7873,11 +7904,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -7886,14 +7917,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7940,10 +7971,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="78">
+      <c r="L3" s="75">
         <v>2017</v>
       </c>
-      <c r="M3" s="79"/>
+      <c r="M3" s="76"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -7954,16 +7985,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="80">
+      <c r="G4" s="77">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="79"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -8894,13 +8925,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -8913,6 +8937,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -12,23 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="newest" sheetId="12" r:id="rId1"/>
-    <sheet name="Week 22 - 23" sheetId="10" r:id="rId2"/>
-    <sheet name="DataSource" sheetId="11" r:id="rId3"/>
-    <sheet name="Week 12-13" sheetId="5" r:id="rId4"/>
-    <sheet name="Week 14-15" sheetId="6" r:id="rId5"/>
-    <sheet name="Week 16-17" sheetId="7" r:id="rId6"/>
-    <sheet name="Week 18-19" sheetId="8" r:id="rId7"/>
-    <sheet name="Week 20-21" sheetId="9" r:id="rId8"/>
+    <sheet name="newest (2)" sheetId="13" r:id="rId1"/>
+    <sheet name="newest" sheetId="12" r:id="rId2"/>
+    <sheet name="Week 22 - 23" sheetId="10" r:id="rId3"/>
+    <sheet name="DataSource" sheetId="11" r:id="rId4"/>
+    <sheet name="Week 12-13" sheetId="5" r:id="rId5"/>
+    <sheet name="Week 14-15" sheetId="6" r:id="rId6"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId7"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId8"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">newest!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 12-13'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 14-15'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 16-17'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 18-19'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Week 20-21'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 22 - 23'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">newest!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'newest (2)'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 12-13'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 14-15'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 16-17'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 22 - 23'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="92">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -342,6 +344,29 @@
   </si>
   <si>
     <t>在司</t>
+  </si>
+  <si>
+    <t>金标委支付信息保护技术规范、身份认证规范编辑</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+  </si>
+  <si>
+    <t>产品规划</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规划</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加银行峰会</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1038,7 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1151,19 +1176,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1175,11 +1203,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1198,22 +1235,13 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,6 +1249,9 @@
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1500,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,12 +1546,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="65"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1528,20 +1559,20 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8">
         <f>C3</f>
-        <v>42898</v>
+        <v>42912</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>3</v>
@@ -1563,14 +1594,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>42898</v>
+        <v>42912</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="F3" s="89">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>27</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="16" t="s">
         <v>6</v>
@@ -1582,10 +1616,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="79">
         <v>2017</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1596,16 +1630,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1644,13 +1678,13 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
         <f>B7</f>
-        <v>42898</v>
+        <v>42912</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E6" s="61" t="s">
         <v>75</v>
@@ -1689,17 +1723,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="65">
+      <c r="B7" s="66">
         <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="70"/>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="71"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1734,10 +1768,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="71"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1771,10 +1805,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="72"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1846,13 +1880,13 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20">
         <f>B12</f>
-        <v>42899</v>
+        <v>42913</v>
       </c>
       <c r="C11" s="61" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E11" s="61" t="s">
         <v>75</v>
@@ -1890,17 +1924,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
+      <c r="B12" s="66">
         <f>B7+1</f>
-        <v>42899</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="70"/>
+        <v>42913</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="71"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1913,10 +1947,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1931,10 +1965,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="72"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -1969,13 +2003,13 @@
       <c r="A16" s="2"/>
       <c r="B16" s="20">
         <f>B17</f>
-        <v>42900</v>
+        <v>42914</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>75</v>
@@ -1987,35 +2021,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="65">
+      <c r="B17" s="66">
         <f>B12+1</f>
-        <v>42900</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="70"/>
+        <v>42914</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="71"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="71"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="72"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="73"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,7 +2061,7 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20">
         <f>B22</f>
-        <v>42901</v>
+        <v>42915</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>70</v>
@@ -2042,33 +2076,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="65">
+      <c r="B22" s="66">
         <f>B17+1</f>
-        <v>42901</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="70"/>
+        <v>42915</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="71"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="71"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="72"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,7 +2114,7 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20">
         <f>B27</f>
-        <v>42902</v>
+        <v>42916</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>70</v>
@@ -2095,33 +2129,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="65">
+      <c r="B27" s="66">
         <f>B22+1</f>
-        <v>42902</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="70"/>
+        <v>42916</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="71"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="71"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="72"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,7 +2167,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20">
         <f>B32</f>
-        <v>42903</v>
+        <v>42917</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>73</v>
@@ -2148,29 +2182,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="65">
+      <c r="B32" s="66">
         <f>B27+1</f>
-        <v>42903</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+        <v>42917</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2182,7 +2216,7 @@
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20">
         <f>B37</f>
-        <v>42904</v>
+        <v>42918</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>73</v>
@@ -2197,29 +2231,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="65">
+      <c r="B37" s="66">
         <f>B32+1</f>
-        <v>42904</v>
-      </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
+        <v>42918</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2232,7 +2266,7 @@
       </c>
       <c r="C41" s="13">
         <f>C3+7</f>
-        <v>42905</v>
+        <v>42919</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2241,7 +2275,7 @@
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20">
         <f>B44</f>
-        <v>42905</v>
+        <v>42919</v>
       </c>
       <c r="C43" s="61" t="s">
         <v>85</v>
@@ -2256,33 +2290,29 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="65">
+      <c r="B44" s="66">
         <f>B37+1</f>
-        <v>42905</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="70"/>
+        <v>42919</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="71"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="71"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="72"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2296,7 +2326,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="20">
         <f>B49</f>
-        <v>42906</v>
+        <v>42920</v>
       </c>
       <c r="C48" s="61" t="s">
         <v>85</v>
@@ -2311,33 +2341,29 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="65">
+      <c r="B49" s="66">
         <f>B44+1</f>
-        <v>42906</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="70"/>
+        <v>42920</v>
+      </c>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="71"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="71"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="72"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="72"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="73"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,13 +2377,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="20">
         <f>B54</f>
-        <v>42907</v>
+        <v>42921</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>75</v>
@@ -2366,33 +2392,29 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="65">
+      <c r="B54" s="66">
         <f>B49+1</f>
-        <v>42907</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="70"/>
+        <v>42921</v>
+      </c>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="71"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="71"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="72"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="72"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="73"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2404,13 +2426,13 @@
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20">
         <f>B59</f>
-        <v>42908</v>
+        <v>42922</v>
       </c>
       <c r="C58" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D58" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="61" t="s">
         <v>75</v>
@@ -2419,33 +2441,29 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="65">
+      <c r="B59" s="66">
         <f>B54+1</f>
-        <v>42908</v>
-      </c>
-      <c r="C59" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E59" s="70"/>
+        <v>42922</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="71"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="71"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="72"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="73"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2457,13 +2475,13 @@
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="20">
         <f>B64</f>
-        <v>42909</v>
+        <v>42923</v>
       </c>
       <c r="C63" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D63" s="61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="61" t="s">
         <v>75</v>
@@ -2472,33 +2490,29 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="65">
+      <c r="B64" s="66">
         <f>B59+1</f>
-        <v>42909</v>
-      </c>
-      <c r="C64" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="70"/>
+        <v>42923</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="71"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="71"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="72"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="72"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2510,7 +2524,7 @@
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="20">
         <f>B69</f>
-        <v>42910</v>
+        <v>42924</v>
       </c>
       <c r="C68" s="61" t="s">
         <v>73</v>
@@ -2525,29 +2539,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="65">
+      <c r="B69" s="66">
         <f>B64+1</f>
-        <v>42910</v>
-      </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="70"/>
+        <v>42924</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="71"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="71"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="72"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2559,7 +2573,7 @@
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20">
         <f>B74</f>
-        <v>42911</v>
+        <v>42925</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>73</v>
@@ -2574,33 +2588,1270 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="65">
+      <c r="B74" s="66">
+        <f>B69+1</f>
+        <v>42925</v>
+      </c>
+      <c r="C74" s="68"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42898</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="89">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="79">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="80"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="81">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42898</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="66">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42899</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="66">
+        <f>B7+1</f>
+        <v>42899</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="66"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42900</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="66">
+        <f>B12+1</f>
+        <v>42900</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42901</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="66">
+        <f>B17+1</f>
+        <v>42901</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42902</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="66">
+        <f>B22+1</f>
+        <v>42902</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42903</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="66">
+        <f>B27+1</f>
+        <v>42903</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42904</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="66">
+        <f>B32+1</f>
+        <v>42904</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42905</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42905</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="66">
+        <f>B37+1</f>
+        <v>42905</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42906</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="66">
+        <f>B44+1</f>
+        <v>42906</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="71"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42907</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="66">
+        <f>B49+1</f>
+        <v>42907</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="71"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42908</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="66">
+        <f>B54+1</f>
+        <v>42908</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="71"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42909</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="66">
+        <f>B59+1</f>
+        <v>42909</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="71"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42910</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="66">
+        <f>B64+1</f>
+        <v>42910</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42911</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="66">
         <f>B69+1</f>
         <v>42911</v>
       </c>
-      <c r="C74" s="80"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="70"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="71"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="71"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="72"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="72"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="73"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="D59:D61"/>
@@ -2617,51 +3868,1195 @@
     <mergeCell ref="C69:C71"/>
     <mergeCell ref="D69:D71"/>
     <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B49:B51"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C16:D16 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C73:D73</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="58"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="79">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="80"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="81">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="66">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="71"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="67"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="66">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="66"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="67"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="66">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="71"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="66">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="71"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="66">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="71"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="66">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="66">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="66">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="66">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="71"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="66">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="71"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="66">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="71"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="66">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="71"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="66">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="68"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="66">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="68"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
     <mergeCell ref="C49:C51"/>
     <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2685,1196 +5080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="58"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42884</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42884</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>22</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="75">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="77">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42884</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="65">
-        <f>C3</f>
-        <v>42884</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="66"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42885</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="65">
-        <f>B7+1</f>
-        <v>42885</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="66"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42886</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="65">
-        <f>B12+1</f>
-        <v>42886</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42887</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="65">
-        <f>B17+1</f>
-        <v>42887</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42888</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="65">
-        <f>B22+1</f>
-        <v>42888</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42889</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="65">
-        <f>B27+1</f>
-        <v>42889</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42890</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="65">
-        <f>B32+1</f>
-        <v>42890</v>
-      </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42891</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42891</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="65">
-        <f>B37+1</f>
-        <v>42891</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42892</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="65">
-        <f>B44+1</f>
-        <v>42892</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="70"/>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42893</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="65">
-        <f>B49+1</f>
-        <v>42893</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="71"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="82"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42894</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="65">
-        <f>B54+1</f>
-        <v>42894</v>
-      </c>
-      <c r="C59" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42895</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="65">
-        <f>B59+1</f>
-        <v>42895</v>
-      </c>
-      <c r="C64" s="80" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42896</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="65">
-        <f>B64+1</f>
-        <v>42896</v>
-      </c>
-      <c r="C69" s="80"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="82"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42897</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="65">
-        <f>B69+1</f>
-        <v>42897</v>
-      </c>
-      <c r="C74" s="80"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataSource!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:D6 C68:D68 C16:D16 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C73:D73</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -3905,7 +5111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -3925,11 +5131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3938,14 +5144,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3992,10 +5198,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="79">
         <v>2017</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4006,16 +5212,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4094,7 +5300,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="86">
+      <c r="B7" s="87">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -4134,7 +5340,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -4170,7 +5376,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -4279,7 +5485,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -4297,7 +5503,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -4314,7 +5520,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -4360,7 +5566,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="86">
+      <c r="B17" s="87">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -4371,7 +5577,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -4379,7 +5585,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -4398,7 +5604,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="86">
+      <c r="B22" s="87">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -4408,14 +5614,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -4434,7 +5640,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="86">
+      <c r="B27" s="87">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -4444,14 +5650,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -4470,7 +5676,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="86">
+      <c r="B32" s="87">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -4480,14 +5686,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -4506,7 +5712,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="86">
+      <c r="B37" s="87">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -4516,14 +5722,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -4558,7 +5764,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="86">
+      <c r="B44" s="87">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -4568,14 +5774,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="87"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -4599,7 +5805,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="86">
+      <c r="B49" s="87">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -4609,14 +5815,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="87"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -4640,7 +5846,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="86">
+      <c r="B54" s="87">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -4650,14 +5856,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="86"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -4676,7 +5882,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="86">
+      <c r="B59" s="87">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -4686,14 +5892,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="86"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -4712,7 +5918,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="86">
+      <c r="B64" s="87">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -4722,14 +5928,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="86"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -4748,7 +5954,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="86">
+      <c r="B69" s="87">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -4758,14 +5964,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="86"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="87"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -4784,7 +5990,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="86">
+      <c r="B74" s="87">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -4794,30 +6000,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="86"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="87"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -4827,6 +6023,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4838,7 +6044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -4858,11 +6064,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -4871,14 +6077,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4925,10 +6131,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="79">
         <v>2017</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4939,16 +6145,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5027,7 +6233,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="86">
+      <c r="B7" s="87">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -5073,7 +6279,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -5109,7 +6315,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5218,7 +6424,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -5242,7 +6448,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -5259,7 +6465,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -5305,7 +6511,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="86">
+      <c r="B17" s="87">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -5322,7 +6528,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -5330,7 +6536,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -5349,7 +6555,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="86">
+      <c r="B22" s="87">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -5365,14 +6571,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -5391,7 +6597,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="86">
+      <c r="B27" s="87">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -5407,14 +6613,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -5433,7 +6639,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="86">
+      <c r="B32" s="87">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -5449,14 +6655,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -5475,7 +6681,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="86">
+      <c r="B37" s="87">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -5491,14 +6697,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -5533,7 +6739,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="86">
+      <c r="B44" s="87">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -5549,14 +6755,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="87"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -5580,7 +6786,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="86">
+      <c r="B49" s="87">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -5596,7 +6802,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -5609,7 +6815,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="87"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -5633,7 +6839,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="86">
+      <c r="B54" s="87">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -5649,14 +6855,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="86"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -5675,7 +6881,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="86">
+      <c r="B59" s="87">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -5691,14 +6897,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="86"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -5717,7 +6923,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="86">
+      <c r="B64" s="87">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -5733,14 +6939,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="86"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5759,7 +6965,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="86">
+      <c r="B69" s="87">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -5769,14 +6975,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="86"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="87"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5795,7 +7001,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="86">
+      <c r="B74" s="87">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -5805,30 +7011,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="86"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="87"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -5838,6 +7034,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5849,7 +7055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -5869,11 +7075,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5882,14 +7088,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5936,10 +7142,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="79">
         <v>2017</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5950,16 +7156,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6038,7 +7244,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="86">
+      <c r="B7" s="87">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -6084,7 +7290,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -6120,7 +7326,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -6229,7 +7435,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -6244,7 +7450,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -6261,7 +7467,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -6313,7 +7519,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="86">
+      <c r="B17" s="87">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -6330,7 +7536,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -6338,7 +7544,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -6357,7 +7563,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="86">
+      <c r="B22" s="87">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -6373,14 +7579,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -6399,7 +7605,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="86">
+      <c r="B27" s="87">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -6415,14 +7621,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -6441,7 +7647,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="86">
+      <c r="B32" s="87">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -6451,14 +7657,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -6477,7 +7683,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="86">
+      <c r="B37" s="87">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -6487,14 +7693,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -6529,7 +7735,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="86">
+      <c r="B44" s="87">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -6545,7 +7751,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -6558,7 +7764,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="87"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -6582,7 +7788,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="86">
+      <c r="B49" s="87">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -6598,14 +7804,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="87"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -6629,7 +7835,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="86">
+      <c r="B54" s="87">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -6645,7 +7851,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="86"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -6658,7 +7864,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -6677,7 +7883,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="86">
+      <c r="B59" s="87">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -6693,7 +7899,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="86"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -6706,7 +7912,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -6725,7 +7931,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="86">
+      <c r="B64" s="87">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -6741,7 +7947,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="86"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -6754,7 +7960,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -6773,7 +7979,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="86">
+      <c r="B69" s="87">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -6783,14 +7989,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="86"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="87"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -6809,7 +8015,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="86">
+      <c r="B74" s="87">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -6819,30 +8025,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="86"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="87"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -6852,6 +8048,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6863,7 +8069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -6883,11 +8089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -6896,14 +8102,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6950,10 +8156,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="79">
         <v>2017</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6964,16 +8170,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -7052,7 +8258,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="86">
+      <c r="B7" s="87">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -7099,7 +8305,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -7142,7 +8348,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -7251,7 +8457,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -7276,7 +8482,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -7294,7 +8500,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -7341,7 +8547,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="86">
+      <c r="B17" s="87">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -7359,7 +8565,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -7367,7 +8573,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -7386,7 +8592,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="86">
+      <c r="B22" s="87">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -7403,14 +8609,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -7429,7 +8635,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="86">
+      <c r="B27" s="87">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -7446,14 +8652,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -7472,7 +8678,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="86">
+      <c r="B32" s="87">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -7482,14 +8688,14 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -7508,7 +8714,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="86">
+      <c r="B37" s="87">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -7518,14 +8724,14 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -7560,7 +8766,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="86">
+      <c r="B44" s="87">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -7576,7 +8782,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -7590,7 +8796,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="87"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -7614,7 +8820,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="86">
+      <c r="B49" s="87">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -7631,14 +8837,14 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="87"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -7662,7 +8868,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="86">
+      <c r="B54" s="87">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -7679,7 +8885,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="86"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="50"/>
@@ -7687,7 +8893,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -7706,7 +8912,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="86">
+      <c r="B59" s="87">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -7723,7 +8929,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="86"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -7731,7 +8937,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -7750,7 +8956,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="86">
+      <c r="B64" s="87">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -7767,7 +8973,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="86"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -7775,7 +8981,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -7794,7 +9000,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="86">
+      <c r="B69" s="87">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -7804,14 +9010,14 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="86"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="87"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -7830,7 +9036,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="86">
+      <c r="B74" s="87">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -7840,20 +9046,27 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="86"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="87"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -7866,13 +9079,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7884,7 +9090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -7904,11 +9110,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -7917,14 +9123,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7971,10 +9177,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="79">
         <v>2017</v>
       </c>
-      <c r="M3" s="76"/>
+      <c r="M3" s="80"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -7985,16 +9191,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="77">
+      <c r="G4" s="81">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="79"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -8074,7 +9280,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="86">
+      <c r="B7" s="87">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -8121,7 +9327,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -8158,7 +9364,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="87"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -8268,7 +9474,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86">
+      <c r="B12" s="87">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -8293,7 +9499,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -8311,7 +9517,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -8358,7 +9564,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="86">
+      <c r="B17" s="87">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -8376,7 +9582,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="86"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -8385,7 +9591,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="87"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -8406,7 +9612,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="86">
+      <c r="B22" s="87">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -8423,7 +9629,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -8431,7 +9637,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -8452,7 +9658,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="86">
+      <c r="B27" s="87">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -8469,7 +9675,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="86"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -8477,7 +9683,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="87"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -8498,7 +9704,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="86">
+      <c r="B32" s="87">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -8509,7 +9715,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -8517,7 +9723,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="87"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -8538,7 +9744,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="86">
+      <c r="B37" s="87">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -8549,7 +9755,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -8557,7 +9763,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -8594,7 +9800,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="86">
+      <c r="B44" s="87">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -8611,7 +9817,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="86"/>
+      <c r="B45" s="87"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -8619,7 +9825,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="87"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -8645,7 +9851,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="86">
+      <c r="B49" s="87">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -8662,7 +9868,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="86"/>
+      <c r="B50" s="87"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -8670,7 +9876,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="87"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -8696,7 +9902,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="86">
+      <c r="B54" s="87">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -8713,7 +9919,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="86"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="25" t="s">
         <v>56</v>
       </c>
@@ -8727,7 +9933,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="87"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -8748,7 +9954,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="86">
+      <c r="B59" s="87">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -8765,7 +9971,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="86"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -8773,7 +9979,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -8794,7 +10000,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="86">
+      <c r="B64" s="87">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -8811,7 +10017,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="86"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -8819,7 +10025,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -8840,7 +10046,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="86">
+      <c r="B69" s="87">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -8857,7 +10063,7 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="86"/>
+      <c r="B70" s="87"/>
       <c r="C70" s="25" t="s">
         <v>59</v>
       </c>
@@ -8871,7 +10077,7 @@
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="87"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="57" t="s">
         <v>65</v>
       </c>
@@ -8898,7 +10104,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="86">
+      <c r="B74" s="87">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -8909,7 +10115,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="86"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -8917,7 +10123,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="87"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
@@ -8925,6 +10131,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -8937,13 +10150,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="newest (2)" sheetId="13" r:id="rId1"/>
-    <sheet name="newest" sheetId="12" r:id="rId2"/>
+    <sheet name="newest" sheetId="13" r:id="rId1"/>
+    <sheet name="Week24 - 25" sheetId="12" r:id="rId2"/>
     <sheet name="Week 22 - 23" sheetId="10" r:id="rId3"/>
     <sheet name="DataSource" sheetId="11" r:id="rId4"/>
     <sheet name="Week 12-13" sheetId="5" r:id="rId5"/>
@@ -23,14 +23,14 @@
     <sheet name="Week 20-21" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">newest!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'newest (2)'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">newest!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 12-13'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 14-15'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 16-17'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Week 18-19'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Week 20-21'!$B$2:$E$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 22 - 23'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week24 - 25'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -1179,6 +1179,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1197,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,20 +1215,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1249,9 +1252,6 @@
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,8 +1559,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -1601,7 +1601,7 @@
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
         <v>26</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="66">
         <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
         <v>27</v>
       </c>
@@ -1616,10 +1616,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1630,16 +1630,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1723,17 +1723,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="66">
+      <c r="B7" s="67">
         <f>C3</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1805,10 +1805,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="73"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1924,17 +1924,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66">
+      <c r="B12" s="67">
         <f>B7+1</f>
         <v>42913</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1947,10 +1947,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="66"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="72"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1965,10 +1965,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="73"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -2021,35 +2021,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="66">
+      <c r="B17" s="67">
         <f>B12+1</f>
         <v>42914</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="72"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="73"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2076,33 +2076,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="66">
+      <c r="B22" s="67">
         <f>B17+1</f>
         <v>42915</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="72"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2129,33 +2129,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="66">
+      <c r="B27" s="67">
         <f>B22+1</f>
         <v>42916</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="72"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="73"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2182,29 +2182,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="66">
+      <c r="B32" s="67">
         <f>B27+1</f>
         <v>42917</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2231,29 +2231,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="66">
+      <c r="B37" s="67">
         <f>B32+1</f>
         <v>42918</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2290,29 +2290,29 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="66">
+      <c r="B44" s="67">
         <f>B37+1</f>
         <v>42919</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="71"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="72"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="77"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,29 +2341,29 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="66">
+      <c r="B49" s="67">
         <f>B44+1</f>
         <v>42920</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="71"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="72"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2392,29 +2392,29 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="66">
+      <c r="B54" s="67">
         <f>B49+1</f>
         <v>42921</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="71"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="72"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="73"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2441,29 +2441,29 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="66">
+      <c r="B59" s="67">
         <f>B54+1</f>
         <v>42922</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="71"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="72"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="73"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,29 +2490,29 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="66">
+      <c r="B64" s="67">
         <f>B59+1</f>
         <v>42923</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="71"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="75"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="72"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="73"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2539,29 +2539,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="66">
+      <c r="B69" s="67">
         <f>B64+1</f>
         <v>42924</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="71"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="75"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="72"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="73"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="77"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,1225 +2588,38 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="66">
+      <c r="B74" s="67">
         <f>B69+1</f>
         <v>42925</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="71"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="75"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="72"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="76"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="73"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="77"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataSource!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42898</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="89">
-        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>25</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="79">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="80"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="81">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42898</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="66">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42899</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66">
-        <f>B7+1</f>
-        <v>42899</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="66"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42900</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="66">
-        <f>B12+1</f>
-        <v>42900</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42901</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="66">
-        <f>B17+1</f>
-        <v>42901</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42902</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="66">
-        <f>B22+1</f>
-        <v>42902</v>
-      </c>
-      <c r="C27" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42903</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="66">
-        <f>B27+1</f>
-        <v>42903</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42904</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="66">
-        <f>B32+1</f>
-        <v>42904</v>
-      </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42905</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42905</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="66">
-        <f>B37+1</f>
-        <v>42905</v>
-      </c>
-      <c r="C44" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42906</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="66">
-        <f>B44+1</f>
-        <v>42906</v>
-      </c>
-      <c r="C49" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="71"/>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42907</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="66">
-        <f>B49+1</f>
-        <v>42907</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="71"/>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42908</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="66">
-        <f>B54+1</f>
-        <v>42908</v>
-      </c>
-      <c r="C59" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="71"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42909</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="66">
-        <f>B59+1</f>
-        <v>42909</v>
-      </c>
-      <c r="C64" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="71"/>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42910</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="66">
-        <f>B64+1</f>
-        <v>42910</v>
-      </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="73"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42911</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="66">
-        <f>B69+1</f>
-        <v>42911</v>
-      </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -3815,11 +2628,6 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -3878,6 +2686,1198 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42898</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="66">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="80">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="81"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="82">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42898</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="67">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="68"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42899</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="67">
+        <f>B7+1</f>
+        <v>42899</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="75"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42900</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="67">
+        <f>B12+1</f>
+        <v>42900</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42901</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="67">
+        <f>B17+1</f>
+        <v>42901</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42902</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="67">
+        <f>B22+1</f>
+        <v>42902</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42903</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="67">
+        <f>B27+1</f>
+        <v>42903</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42904</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="67">
+        <f>B32+1</f>
+        <v>42904</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42905</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42905</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="67">
+        <f>B37+1</f>
+        <v>42905</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="75"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42906</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="67">
+        <f>B44+1</f>
+        <v>42906</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="75"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42907</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="67">
+        <f>B49+1</f>
+        <v>42907</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="75"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42908</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="67">
+        <f>B54+1</f>
+        <v>42908</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="75"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42909</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="67">
+        <f>B59+1</f>
+        <v>42909</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="75"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42910</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="67">
+        <f>B64+1</f>
+        <v>42910</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42911</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="67">
+        <f>B69+1</f>
+        <v>42911</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3923,8 +3923,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -3977,10 +3977,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3991,16 +3991,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4084,17 +4084,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="66">
+      <c r="B7" s="67">
         <f>C3</f>
         <v>42884</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="71"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="72"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -4166,10 +4166,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="67"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="73"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -4285,17 +4285,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="66">
+      <c r="B12" s="67">
         <f>B7+1</f>
         <v>42885</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4308,10 +4308,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="66"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="72"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -4326,10 +4326,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="73"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -4382,35 +4382,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="66">
+      <c r="B17" s="67">
         <f>B12+1</f>
         <v>42886</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="71"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="72"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="73"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="77"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4437,33 +4437,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="66">
+      <c r="B22" s="67">
         <f>B17+1</f>
         <v>42887</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="71"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="72"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="73"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="77"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4490,33 +4490,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="66">
+      <c r="B27" s="67">
         <f>B22+1</f>
         <v>42888</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="72"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="73"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="77"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,29 +4543,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="66">
+      <c r="B32" s="67">
         <f>B27+1</f>
         <v>42889</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="71"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="72"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="73"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="77"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,29 +4592,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="66">
+      <c r="B37" s="67">
         <f>B32+1</f>
         <v>42890</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="71"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="72"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="73"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,33 +4651,33 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="66">
+      <c r="B44" s="67">
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="74" t="s">
+      <c r="D44" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="71"/>
+      <c r="E44" s="75"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="72"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="73"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="77"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,33 +4706,33 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="66">
+      <c r="B49" s="67">
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="68" t="s">
+      <c r="C49" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="74" t="s">
+      <c r="D49" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="71"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="72"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="76"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="73"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4761,33 +4761,33 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="66">
+      <c r="B54" s="67">
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="71"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="72"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="76"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="73"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="77"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4814,33 +4814,33 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="66">
+      <c r="B59" s="67">
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="68" t="s">
+      <c r="C59" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="74" t="s">
+      <c r="D59" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="71"/>
+      <c r="E59" s="75"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="72"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="76"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="70"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="73"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4867,33 +4867,33 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="66">
+      <c r="B64" s="67">
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="71"/>
+      <c r="E64" s="75"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="72"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="76"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="73"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="77"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4920,29 +4920,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="66">
+      <c r="B69" s="67">
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="71"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="75"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="75"/>
-      <c r="E70" s="72"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="76"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="73"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="77"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4969,64 +4969,47 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="66">
+      <c r="B74" s="67">
         <f>B69+1</f>
         <v>42897</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="74"/>
-      <c r="E74" s="71"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="75"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="72"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="76"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="73"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="77"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -5043,20 +5026,37 @@
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5144,8 +5144,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -5198,10 +5198,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5212,16 +5212,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="87">
+      <c r="B7" s="88">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -5376,7 +5376,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -5485,7 +5485,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87">
+      <c r="B12" s="88">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -5520,7 +5520,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="87">
+      <c r="B17" s="88">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="87">
+      <c r="B22" s="88">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -5614,14 +5614,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="87">
+      <c r="B27" s="88">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -5650,14 +5650,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="87">
+      <c r="B32" s="88">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -5686,14 +5686,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="87">
+      <c r="B37" s="88">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -5722,14 +5722,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="87">
+      <c r="B44" s="88">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -5774,14 +5774,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="87"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="88"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="87">
+      <c r="B49" s="88">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -5815,14 +5815,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="87"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="88"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="87">
+      <c r="B54" s="88">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -5856,14 +5856,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="87">
+      <c r="B59" s="88">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -5892,14 +5892,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="87"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="87">
+      <c r="B64" s="88">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -5928,14 +5928,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="88"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="87">
+      <c r="B69" s="88">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -5964,14 +5964,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -5990,7 +5990,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="87">
+      <c r="B74" s="88">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -6000,20 +6000,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="87"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="88"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -6023,16 +6033,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6077,8 +6077,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -6131,10 +6131,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6145,16 +6145,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="87">
+      <c r="B7" s="88">
         <f>E2</f>
         <v>42828</v>
       </c>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -6315,7 +6315,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -6424,7 +6424,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87">
+      <c r="B12" s="88">
         <f>B7+1</f>
         <v>42829</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -6465,7 +6465,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="87">
+      <c r="B17" s="88">
         <f>B12+1</f>
         <v>42830</v>
       </c>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="87">
+      <c r="B22" s="88">
         <f>B17+1</f>
         <v>42831</v>
       </c>
@@ -6571,14 +6571,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="87">
+      <c r="B27" s="88">
         <f>B22+1</f>
         <v>42832</v>
       </c>
@@ -6613,14 +6613,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="87">
+      <c r="B32" s="88">
         <f>B27+1</f>
         <v>42833</v>
       </c>
@@ -6655,14 +6655,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="87">
+      <c r="B37" s="88">
         <f>B32+1</f>
         <v>42834</v>
       </c>
@@ -6697,14 +6697,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="87">
+      <c r="B44" s="88">
         <f>B37+1</f>
         <v>42835</v>
       </c>
@@ -6755,14 +6755,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="87"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25"/>
       <c r="D45" s="37"/>
       <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="88"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="87">
+      <c r="B49" s="88">
         <f>B44+1</f>
         <v>42836</v>
       </c>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="87"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="25" t="s">
         <v>26</v>
       </c>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="88"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="87">
+      <c r="B54" s="88">
         <f>B49+1</f>
         <v>42837</v>
       </c>
@@ -6855,14 +6855,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="36"/>
       <c r="D55" s="41"/>
       <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -6881,7 +6881,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="87">
+      <c r="B59" s="88">
         <f>B54+1</f>
         <v>42838</v>
       </c>
@@ -6897,14 +6897,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="87"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="36"/>
       <c r="D60" s="42"/>
       <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="87">
+      <c r="B64" s="88">
         <f>B59+1</f>
         <v>42839</v>
       </c>
@@ -6939,14 +6939,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="88"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="87">
+      <c r="B69" s="88">
         <f>B64+1</f>
         <v>42840</v>
       </c>
@@ -6975,14 +6975,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="87">
+      <c r="B74" s="88">
         <f>B69+1</f>
         <v>42841</v>
       </c>
@@ -7011,20 +7011,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="87"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="88"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -7034,16 +7044,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7088,8 +7088,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -7142,10 +7142,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -7156,16 +7156,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="87">
+      <c r="B7" s="88">
         <f>E2</f>
         <v>42842</v>
       </c>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
@@ -7326,7 +7326,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -7435,7 +7435,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87">
+      <c r="B12" s="88">
         <f>B7+1</f>
         <v>42843</v>
       </c>
@@ -7450,7 +7450,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
@@ -7467,7 +7467,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="34" t="s">
         <v>29</v>
       </c>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="87">
+      <c r="B17" s="88">
         <f>B12+1</f>
         <v>42844</v>
       </c>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="87">
+      <c r="B22" s="88">
         <f>B17+1</f>
         <v>42845</v>
       </c>
@@ -7579,14 +7579,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="87">
+      <c r="B27" s="88">
         <f>B22+1</f>
         <v>42846</v>
       </c>
@@ -7621,14 +7621,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="87">
+      <c r="B32" s="88">
         <f>B27+1</f>
         <v>42847</v>
       </c>
@@ -7657,14 +7657,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="87">
+      <c r="B37" s="88">
         <f>B32+1</f>
         <v>42848</v>
       </c>
@@ -7693,14 +7693,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="87">
+      <c r="B44" s="88">
         <f>B37+1</f>
         <v>42849</v>
       </c>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="87"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25" t="s">
         <v>33</v>
       </c>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="88"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="87">
+      <c r="B49" s="88">
         <f>B44+1</f>
         <v>42850</v>
       </c>
@@ -7804,14 +7804,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="87"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="88"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="87">
+      <c r="B54" s="88">
         <f>B49+1</f>
         <v>42851</v>
       </c>
@@ -7851,7 +7851,7 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="48" t="s">
         <v>37</v>
       </c>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="87">
+      <c r="B59" s="88">
         <f>B54+1</f>
         <v>42852</v>
       </c>
@@ -7899,7 +7899,7 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="87"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="48" t="s">
         <v>37</v>
       </c>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="87">
+      <c r="B64" s="88">
         <f>B59+1</f>
         <v>42853</v>
       </c>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="48" t="s">
         <v>37</v>
       </c>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="88"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="87">
+      <c r="B69" s="88">
         <f>B64+1</f>
         <v>42854</v>
       </c>
@@ -7989,14 +7989,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="87">
+      <c r="B74" s="88">
         <f>B69+1</f>
         <v>42855</v>
       </c>
@@ -8025,20 +8025,30 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="87"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="88"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -8048,16 +8058,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8102,8 +8102,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -8156,10 +8156,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -8170,16 +8170,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="87">
+      <c r="B7" s="88">
         <f>E2</f>
         <v>42856</v>
       </c>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="48" t="s">
         <v>39</v>
       </c>
@@ -8348,7 +8348,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -8457,7 +8457,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87">
+      <c r="B12" s="88">
         <f>B7+1</f>
         <v>42857</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -8500,7 +8500,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="87">
+      <c r="B17" s="88">
         <f>B12+1</f>
         <v>42858</v>
       </c>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -8573,7 +8573,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -8592,7 +8592,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="87">
+      <c r="B22" s="88">
         <f>B17+1</f>
         <v>42859</v>
       </c>
@@ -8609,14 +8609,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="87">
+      <c r="B27" s="88">
         <f>B22+1</f>
         <v>42860</v>
       </c>
@@ -8652,14 +8652,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="87">
+      <c r="B32" s="88">
         <f>B27+1</f>
         <v>42861</v>
       </c>
@@ -8688,14 +8688,14 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -8714,7 +8714,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="87">
+      <c r="B37" s="88">
         <f>B32+1</f>
         <v>42862</v>
       </c>
@@ -8724,14 +8724,14 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="87">
+      <c r="B44" s="88">
         <f>B37+1</f>
         <v>42863</v>
       </c>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="87"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25" t="s">
         <v>46</v>
       </c>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="88"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="87">
+      <c r="B49" s="88">
         <f>B44+1</f>
         <v>42864</v>
       </c>
@@ -8837,14 +8837,14 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="87"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="88"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="87">
+      <c r="B54" s="88">
         <f>B49+1</f>
         <v>42865</v>
       </c>
@@ -8885,7 +8885,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
       <c r="E55" s="50"/>
@@ -8893,7 +8893,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="87">
+      <c r="B59" s="88">
         <f>B54+1</f>
         <v>42866</v>
       </c>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="87"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="87">
+      <c r="B64" s="88">
         <f>B59+1</f>
         <v>42867</v>
       </c>
@@ -8973,7 +8973,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="88"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="29"/>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="87">
+      <c r="B69" s="88">
         <f>B64+1</f>
         <v>42868</v>
       </c>
@@ -9010,14 +9010,14 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="27"/>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
@@ -9036,7 +9036,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="87">
+      <c r="B74" s="88">
         <f>B69+1</f>
         <v>42869</v>
       </c>
@@ -9046,27 +9046,20 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="87"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="88"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -9079,6 +9072,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9123,8 +9123,8 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
@@ -9177,10 +9177,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="79">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="80"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -9191,16 +9191,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="81">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="87">
+      <c r="B7" s="88">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -9327,7 +9327,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="87"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -9364,7 +9364,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
@@ -9474,7 +9474,7 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87">
+      <c r="B12" s="88">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -9499,7 +9499,7 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="54"/>
@@ -9517,7 +9517,7 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="55"/>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="87">
+      <c r="B17" s="88">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -9582,7 +9582,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="87">
+      <c r="B22" s="88">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -9629,7 +9629,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="87">
+      <c r="B27" s="88">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="26"/>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="87">
+      <c r="B32" s="88">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="87"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="38"/>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="27"/>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="87">
+      <c r="B37" s="88">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="38"/>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="87">
+      <c r="B44" s="88">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="87"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
       <c r="E45" s="41"/>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="88"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="27"/>
       <c r="D46" s="28"/>
       <c r="E46" s="56"/>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="87">
+      <c r="B49" s="88">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="87"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="36"/>
       <c r="D50" s="41"/>
       <c r="E50" s="42"/>
@@ -9876,7 +9876,7 @@
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="88"/>
+      <c r="B51" s="89"/>
       <c r="C51" s="27"/>
       <c r="D51" s="28"/>
       <c r="E51" s="56"/>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="87">
+      <c r="B54" s="88">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="87"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="25" t="s">
         <v>56</v>
       </c>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="89"/>
       <c r="C56" s="27"/>
       <c r="D56" s="28"/>
       <c r="E56" s="56"/>
@@ -9954,7 +9954,7 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="87">
+      <c r="B59" s="88">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="87"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
       <c r="E60" s="50"/>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="89"/>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
       <c r="E61" s="56"/>
@@ -10000,7 +10000,7 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="87">
+      <c r="B64" s="88">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="50"/>
@@ -10025,7 +10025,7 @@
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="88"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="56"/>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="87">
+      <c r="B69" s="88">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="87"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="25" t="s">
         <v>59</v>
       </c>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="57" t="s">
         <v>65</v>
       </c>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="87">
+      <c r="B74" s="88">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="87"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="38"/>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="88"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="27"/>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
@@ -10131,13 +10131,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -10150,6 +10143,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -357,15 +357,15 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>产品规划</t>
+    <t>参加银行峰会</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>厂商交流</t>
+    <t>产品规划；无纸化课题内刊文档编制；场景证书微信推文编制；手写原笔迹签名专利编制</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>参加银行峰会</t>
+    <t>产品规划；无纸化课题内刊文档编制；场景证书微信推文编制；手写原笔迹签名专利编制；智能机器人厂商交流</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1188,22 +1188,13 @@
     <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,13 +1229,22 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1546,11 +1546,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="65"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1559,14 +1559,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1616,10 +1616,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1630,16 +1630,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1727,13 +1727,13 @@
         <f>C3</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="85" t="s">
+      <c r="C7" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="D7" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="72"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1769,9 +1769,9 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1806,9 +1806,9 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="68"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="77"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1928,13 +1928,13 @@
         <f>B7+1</f>
         <v>42913</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="75"/>
+      <c r="C12" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="72"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1948,9 +1948,9 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="67"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1966,9 +1966,9 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -2025,31 +2025,31 @@
         <f>B12+1</f>
         <v>42914</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="75"/>
+      <c r="C17" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="72"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="76"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="77"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,29 +2080,29 @@
         <f>B17+1</f>
         <v>42915</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="75"/>
+      <c r="C22" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="72"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="76"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="77"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,29 +2133,29 @@
         <f>B22+1</f>
         <v>42916</v>
       </c>
-      <c r="C27" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="75"/>
+      <c r="C27" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="72"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="76"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="68"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="77"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2186,25 +2186,25 @@
         <f>B27+1</f>
         <v>42917</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2235,25 +2235,25 @@
         <f>B32+1</f>
         <v>42918</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="67"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,25 +2294,25 @@
         <f>B37+1</f>
         <v>42919</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="75"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="76"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="77"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2345,25 +2345,25 @@
         <f>B44+1</f>
         <v>42920</v>
       </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="75"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="67"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="76"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="77"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2396,25 +2396,25 @@
         <f>B49+1</f>
         <v>42921</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="75"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="76"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="77"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2445,25 +2445,25 @@
         <f>B54+1</f>
         <v>42922</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="75"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="67"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="76"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="77"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,25 +2494,25 @@
         <f>B59+1</f>
         <v>42923</v>
       </c>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="75"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="76"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="77"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2543,25 +2543,25 @@
         <f>B64+1</f>
         <v>42924</v>
       </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="75"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="67"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="76"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="77"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,1217 +2592,25 @@
         <f>B69+1</f>
         <v>42925</v>
       </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="75"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="72"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="76"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="68"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataSource!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42898</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="66">
-        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>25</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="80">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="82">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42898</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="67">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42899</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67">
-        <f>B7+1</f>
-        <v>42899</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42900</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="67">
-        <f>B12+1</f>
-        <v>42900</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42901</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="67">
-        <f>B17+1</f>
-        <v>42901</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42902</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="67">
-        <f>B22+1</f>
-        <v>42902</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42903</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="67">
-        <f>B27+1</f>
-        <v>42903</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42904</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="67">
-        <f>B32+1</f>
-        <v>42904</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42905</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42905</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="67">
-        <f>B37+1</f>
-        <v>42905</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="75"/>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42906</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="67">
-        <f>B44+1</f>
-        <v>42906</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="75"/>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42907</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="67">
-        <f>B49+1</f>
-        <v>42907</v>
-      </c>
-      <c r="C54" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42908</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="67">
-        <f>B54+1</f>
-        <v>42908</v>
-      </c>
-      <c r="C59" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="75"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42909</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="67">
-        <f>B59+1</f>
-        <v>42909</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="75"/>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42910</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="67">
-        <f>B64+1</f>
-        <v>42910</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42911</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="67">
-        <f>B69+1</f>
-        <v>42911</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="75"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="77"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
@@ -3878,6 +2686,1198 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42898</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="66">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="77">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="78"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="79">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42898</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="67">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="68"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42899</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="67">
+        <f>B7+1</f>
+        <v>42899</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="67"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="68"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42900</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="67">
+        <f>B12+1</f>
+        <v>42900</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42901</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="67">
+        <f>B17+1</f>
+        <v>42901</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="72"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42902</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="67">
+        <f>B22+1</f>
+        <v>42902</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42903</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="67">
+        <f>B27+1</f>
+        <v>42903</v>
+      </c>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42904</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="67">
+        <f>B32+1</f>
+        <v>42904</v>
+      </c>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42905</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42905</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="67">
+        <f>B37+1</f>
+        <v>42905</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42906</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="67">
+        <f>B44+1</f>
+        <v>42906</v>
+      </c>
+      <c r="C49" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42907</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="67">
+        <f>B49+1</f>
+        <v>42907</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42908</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="67">
+        <f>B54+1</f>
+        <v>42908</v>
+      </c>
+      <c r="C59" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="72"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42909</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="67">
+        <f>B59+1</f>
+        <v>42909</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="72"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42910</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="67">
+        <f>B64+1</f>
+        <v>42910</v>
+      </c>
+      <c r="C69" s="82"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42911</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="67">
+        <f>B69+1</f>
+        <v>42911</v>
+      </c>
+      <c r="C74" s="82"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3910,11 +3910,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="58"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3923,14 +3923,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3977,10 +3977,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3991,16 +3991,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4088,13 +4088,13 @@
         <f>C3</f>
         <v>42884</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -4130,9 +4130,9 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="76"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -4167,9 +4167,9 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="68"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="77"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -4289,13 +4289,13 @@
         <f>B7+1</f>
         <v>42885</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="75"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4309,9 +4309,9 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="67"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -4327,9 +4327,9 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -4386,31 +4386,31 @@
         <f>B12+1</f>
         <v>42886</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="75"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="76"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="77"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4441,29 +4441,29 @@
         <f>B17+1</f>
         <v>42887</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="75"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="76"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="77"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4494,29 +4494,29 @@
         <f>B22+1</f>
         <v>42888</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="75"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="76"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="68"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="77"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4547,25 +4547,25 @@
         <f>B27+1</f>
         <v>42889</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="75"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="76"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="77"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4596,25 +4596,25 @@
         <f>B32+1</f>
         <v>42890</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="75"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="67"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="76"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="77"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="74"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4655,29 +4655,29 @@
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="72" t="s">
+      <c r="D44" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="75"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="76"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="77"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4710,29 +4710,29 @@
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="75"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="67"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="76"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="77"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4765,29 +4765,29 @@
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C54" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="E54" s="75"/>
+      <c r="E54" s="72"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="76"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="77"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="74"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4818,29 +4818,29 @@
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C59" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="72" t="s">
+      <c r="D59" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="75"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="67"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="76"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="73"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="77"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="74"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4871,29 +4871,29 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="69" t="s">
+      <c r="C64" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="75"/>
+      <c r="E64" s="72"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="76"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="73"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="77"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="74"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4924,25 +4924,25 @@
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="75"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="67"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="76"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="86"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="77"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,43 +4973,60 @@
         <f>B69+1</f>
         <v>42897</v>
       </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="75"/>
+      <c r="C74" s="82"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="72"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="76"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="86"/>
+      <c r="E75" s="73"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="68"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="77"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="74"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -5026,37 +5043,20 @@
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5131,11 +5131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5144,14 +5144,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5198,10 +5198,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5212,16 +5212,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6014,16 +6014,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -6033,6 +6023,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6064,11 +6064,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -6077,14 +6077,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6131,10 +6131,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6145,16 +6145,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -7025,16 +7025,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -7044,6 +7034,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7075,11 +7075,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -7088,14 +7088,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7142,10 +7142,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -7156,16 +7156,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -8039,16 +8039,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -8058,6 +8048,16 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8089,11 +8089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -8102,14 +8102,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8156,10 +8156,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -8170,16 +8170,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -9060,6 +9060,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -9072,13 +9079,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9110,11 +9110,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -9123,14 +9123,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9177,10 +9177,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="77">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="78"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -9191,16 +9191,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="79">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -10131,6 +10131,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -10143,13 +10150,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="93">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -353,10 +353,6 @@
     <t>外出</t>
   </si>
   <si>
-    <t>产品规划</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>参加银行峰会</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -366,6 +362,14 @@
   </si>
   <si>
     <t>产品规划；无纸化课题内刊文档编制；场景证书微信推文编制；手写原笔迹签名专利编制；智能机器人厂商交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行电子回单业务交流</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品规划</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1188,13 +1192,13 @@
     <xf numFmtId="181" fontId="14" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,11 +1210,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1229,22 +1242,13 @@
     <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1532,7 +1536,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1546,11 +1550,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="65"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -1559,14 +1563,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1616,10 +1620,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1630,16 +1634,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1727,11 +1731,11 @@
         <f>C3</f>
         <v>42912</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>91</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="60"/>
@@ -1769,8 +1773,8 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="73"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
@@ -1806,8 +1810,8 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="68"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="74"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
@@ -1928,11 +1932,11 @@
         <f>B7+1</f>
         <v>42913</v>
       </c>
-      <c r="C12" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>89</v>
+      <c r="C12" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>91</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="52"/>
@@ -1948,8 +1952,8 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="67"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="73"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
@@ -1966,8 +1970,8 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="68"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="74"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
@@ -2025,11 +2029,11 @@
         <f>B12+1</f>
         <v>42914</v>
       </c>
-      <c r="C17" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>89</v>
+      <c r="C17" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="52"/>
@@ -2038,8 +2042,8 @@
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="73"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
@@ -2047,8 +2051,8 @@
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="74"/>
       <c r="F19" s="52"/>
     </row>
@@ -2080,11 +2084,11 @@
         <f>B17+1</f>
         <v>42915</v>
       </c>
-      <c r="C22" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>89</v>
+      <c r="C22" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>88</v>
       </c>
       <c r="E22" s="72"/>
       <c r="F22" s="52"/>
@@ -2092,16 +2096,16 @@
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="73"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="68"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="74"/>
       <c r="F24" s="52"/>
     </row>
@@ -2133,10 +2137,10 @@
         <f>B22+1</f>
         <v>42916</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="69" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="72"/>
@@ -2145,16 +2149,16 @@
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="73"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="68"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="74"/>
       <c r="F29" s="52"/>
     </row>
@@ -2170,10 +2174,10 @@
         <v>42917</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E31" s="61" t="s">
         <v>75</v>
@@ -2186,25 +2190,29 @@
         <f>B27+1</f>
         <v>42917</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
+      <c r="C32" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="69"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2235,25 +2243,25 @@
         <f>B32+1</f>
         <v>42918</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="67"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,24 +2302,28 @@
         <f>B37+1</f>
         <v>42919</v>
       </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
+      <c r="C44" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="E44" s="72"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="73"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="74"/>
       <c r="F46" s="52"/>
     </row>
@@ -2345,24 +2357,28 @@
         <f>B44+1</f>
         <v>42920</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
+      <c r="C49" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="E49" s="72"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="67"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="73"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
       <c r="E51" s="74"/>
       <c r="F51" s="52"/>
     </row>
@@ -2396,24 +2412,28 @@
         <f>B49+1</f>
         <v>42921</v>
       </c>
-      <c r="C54" s="82"/>
-      <c r="D54" s="82"/>
+      <c r="C54" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="E54" s="72"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="73"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="74"/>
       <c r="F56" s="52"/>
     </row>
@@ -2445,24 +2465,28 @@
         <f>B54+1</f>
         <v>42922</v>
       </c>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
+      <c r="C59" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="E59" s="72"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="67"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="73"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
       <c r="E61" s="74"/>
       <c r="F61" s="52"/>
     </row>
@@ -2494,24 +2518,28 @@
         <f>B59+1</f>
         <v>42923</v>
       </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
+      <c r="C64" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>92</v>
+      </c>
       <c r="E64" s="72"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="73"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
       <c r="E66" s="74"/>
       <c r="F66" s="52"/>
     </row>
@@ -2543,24 +2571,24 @@
         <f>B64+1</f>
         <v>42924</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="85"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="75"/>
       <c r="E69" s="72"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="67"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="86"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="73"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="87"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="74"/>
       <c r="F71" s="52"/>
     </row>
@@ -2592,24 +2620,1216 @@
         <f>B69+1</f>
         <v>42925</v>
       </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="85"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="72"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="86"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="73"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="68"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="87"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42898</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="66">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="80">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="81"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="82">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42898</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="67">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="68"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42899</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="67">
+        <f>B7+1</f>
+        <v>42899</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="67"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="68"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42900</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="67">
+        <f>B12+1</f>
+        <v>42900</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="72"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42901</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="67">
+        <f>B17+1</f>
+        <v>42901</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="72"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42902</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="67">
+        <f>B22+1</f>
+        <v>42902</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42903</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="67">
+        <f>B27+1</f>
+        <v>42903</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42904</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="67">
+        <f>B32+1</f>
+        <v>42904</v>
+      </c>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42905</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42905</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="67">
+        <f>B37+1</f>
+        <v>42905</v>
+      </c>
+      <c r="C44" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="72"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42906</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="67">
+        <f>B44+1</f>
+        <v>42906</v>
+      </c>
+      <c r="C49" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="72"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42907</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="67">
+        <f>B49+1</f>
+        <v>42907</v>
+      </c>
+      <c r="C54" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="72"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42908</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="67">
+        <f>B54+1</f>
+        <v>42908</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="72"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42909</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="67">
+        <f>B59+1</f>
+        <v>42909</v>
+      </c>
+      <c r="C64" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="72"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42910</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="67">
+        <f>B64+1</f>
+        <v>42910</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42911</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="67">
+        <f>B69+1</f>
+        <v>42911</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="74"/>
       <c r="F76" s="52"/>
     </row>
@@ -2686,1198 +3906,6 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataSource!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42898</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="66">
-        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>25</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="77">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="79">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42898</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="67">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42899</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67">
-        <f>B7+1</f>
-        <v>42899</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42900</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="67">
-        <f>B12+1</f>
-        <v>42900</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42901</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="67">
-        <f>B17+1</f>
-        <v>42901</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42902</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="67">
-        <f>B22+1</f>
-        <v>42902</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42903</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="67">
-        <f>B27+1</f>
-        <v>42903</v>
-      </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42904</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="67">
-        <f>B32+1</f>
-        <v>42904</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42905</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42905</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="67">
-        <f>B37+1</f>
-        <v>42905</v>
-      </c>
-      <c r="C44" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42906</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="67">
-        <f>B44+1</f>
-        <v>42906</v>
-      </c>
-      <c r="C49" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42907</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="67">
-        <f>B49+1</f>
-        <v>42907</v>
-      </c>
-      <c r="C54" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42908</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="67">
-        <f>B54+1</f>
-        <v>42908</v>
-      </c>
-      <c r="C59" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="72"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42909</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="67">
-        <f>B59+1</f>
-        <v>42909</v>
-      </c>
-      <c r="C64" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42910</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="67">
-        <f>B64+1</f>
-        <v>42910</v>
-      </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42911</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="67">
-        <f>B69+1</f>
-        <v>42911</v>
-      </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="86"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3910,11 +3938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="58"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3923,14 +3951,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -3977,10 +4005,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -3991,16 +4019,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4088,10 +4116,10 @@
         <f>C3</f>
         <v>42884</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="75" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="72"/>
@@ -4130,8 +4158,8 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="73"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
@@ -4167,8 +4195,8 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="68"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="74"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
@@ -4289,10 +4317,10 @@
         <f>B7+1</f>
         <v>42885</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="75" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="72"/>
@@ -4309,8 +4337,8 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="67"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="73"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
@@ -4327,8 +4355,8 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="68"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="87"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="74"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
@@ -4386,10 +4414,10 @@
         <f>B12+1</f>
         <v>42886</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="75" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="72"/>
@@ -4399,8 +4427,8 @@
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="67"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="73"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
@@ -4408,8 +4436,8 @@
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="87"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="74"/>
       <c r="F19" s="52"/>
     </row>
@@ -4441,10 +4469,10 @@
         <f>B17+1</f>
         <v>42887</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="75" t="s">
         <v>77</v>
       </c>
       <c r="E22" s="72"/>
@@ -4453,16 +4481,16 @@
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="67"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="73"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="68"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="87"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="74"/>
       <c r="F24" s="52"/>
     </row>
@@ -4494,10 +4522,10 @@
         <f>B22+1</f>
         <v>42888</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="75" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="72"/>
@@ -4506,16 +4534,16 @@
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="86"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="73"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="68"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="87"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="74"/>
       <c r="F29" s="52"/>
     </row>
@@ -4547,24 +4575,24 @@
         <f>B27+1</f>
         <v>42889</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="85"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="72"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="67"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="73"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="68"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="87"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="74"/>
       <c r="F34" s="52"/>
     </row>
@@ -4596,24 +4624,24 @@
         <f>B32+1</f>
         <v>42890</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="85"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="72"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="67"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="86"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="73"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="68"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="87"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="74"/>
       <c r="F39" s="52"/>
     </row>
@@ -4655,10 +4683,10 @@
         <f>B37+1</f>
         <v>42891</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="85" t="s">
+      <c r="D44" s="75" t="s">
         <v>62</v>
       </c>
       <c r="E44" s="72"/>
@@ -4667,16 +4695,16 @@
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="67"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="86"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="76"/>
       <c r="E45" s="73"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="68"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="87"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="74"/>
       <c r="F46" s="52"/>
     </row>
@@ -4710,10 +4738,10 @@
         <f>B44+1</f>
         <v>42892</v>
       </c>
-      <c r="C49" s="82" t="s">
+      <c r="C49" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="75" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="72"/>
@@ -4722,16 +4750,16 @@
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="67"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="86"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="73"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="68"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="87"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="74"/>
       <c r="F51" s="52"/>
     </row>
@@ -4765,10 +4793,10 @@
         <f>B49+1</f>
         <v>42893</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="85" t="s">
+      <c r="D54" s="75" t="s">
         <v>79</v>
       </c>
       <c r="E54" s="72"/>
@@ -4777,16 +4805,16 @@
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="67"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="86"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="76"/>
       <c r="E55" s="73"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="87"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="77"/>
       <c r="E56" s="74"/>
       <c r="F56" s="52"/>
     </row>
@@ -4818,10 +4846,10 @@
         <f>B54+1</f>
         <v>42894</v>
       </c>
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="75" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="72"/>
@@ -4830,16 +4858,16 @@
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="67"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="86"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="76"/>
       <c r="E60" s="73"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="68"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="87"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="77"/>
       <c r="E61" s="74"/>
       <c r="F61" s="52"/>
     </row>
@@ -4871,10 +4899,10 @@
         <f>B59+1</f>
         <v>42895</v>
       </c>
-      <c r="C64" s="82" t="s">
+      <c r="C64" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="85" t="s">
+      <c r="D64" s="75" t="s">
         <v>69</v>
       </c>
       <c r="E64" s="72"/>
@@ -4883,16 +4911,16 @@
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="67"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="86"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="76"/>
       <c r="E65" s="73"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="68"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="87"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="77"/>
       <c r="E66" s="74"/>
       <c r="F66" s="52"/>
     </row>
@@ -4924,24 +4952,24 @@
         <f>B64+1</f>
         <v>42896</v>
       </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="85"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="75"/>
       <c r="E69" s="72"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="67"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="86"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="73"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="68"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="87"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="77"/>
       <c r="E71" s="74"/>
       <c r="F71" s="52"/>
     </row>
@@ -4973,60 +5001,43 @@
         <f>B69+1</f>
         <v>42897</v>
       </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="85"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="75"/>
       <c r="E74" s="72"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="67"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="86"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="73"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="68"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="87"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="77"/>
       <c r="E76" s="74"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -5043,20 +5054,37 @@
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E54:E56"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5131,11 +5159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -5144,14 +5172,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5198,10 +5226,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -5212,16 +5240,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -6014,6 +6042,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -6023,16 +6061,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6064,11 +6092,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -6077,14 +6105,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6131,10 +6159,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -6145,16 +6173,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -7025,6 +7053,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -7034,16 +7072,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7075,11 +7103,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -7088,14 +7116,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -7142,10 +7170,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -7156,16 +7184,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42826</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -8039,6 +8067,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
@@ -8048,16 +8086,6 @@
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8089,11 +8117,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -8102,14 +8130,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8156,10 +8184,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -8170,16 +8198,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -9060,13 +9088,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -9079,6 +9100,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -9110,11 +9138,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
       <c r="E1" s="4"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -9123,14 +9151,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9177,10 +9205,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="77">
+      <c r="L3" s="80">
         <v>2017</v>
       </c>
-      <c r="M3" s="78"/>
+      <c r="M3" s="81"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -9191,16 +9219,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="79">
+      <c r="G4" s="82">
         <f>DATE(L3,I3,1)</f>
         <v>42856</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -10131,13 +10159,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="L1:M1"/>
@@ -10150,6 +10171,13 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-李达.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-李达.xlsx
@@ -12,25 +12,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="newest" sheetId="13" r:id="rId1"/>
-    <sheet name="Week24 - 25" sheetId="12" r:id="rId2"/>
-    <sheet name="Week 22 - 23" sheetId="10" r:id="rId3"/>
-    <sheet name="DataSource" sheetId="11" r:id="rId4"/>
-    <sheet name="Week 12-13" sheetId="5" r:id="rId5"/>
-    <sheet name="Week 14-15" sheetId="6" r:id="rId6"/>
-    <sheet name="Week 16-17" sheetId="7" r:id="rId7"/>
-    <sheet name="Week 18-19" sheetId="8" r:id="rId8"/>
-    <sheet name="Week 20-21" sheetId="9" r:id="rId9"/>
+    <sheet name="newest" sheetId="14" r:id="rId1"/>
+    <sheet name="Week26 - 27" sheetId="13" r:id="rId2"/>
+    <sheet name="Week24 - 25" sheetId="12" r:id="rId3"/>
+    <sheet name="Week 22 - 23" sheetId="10" r:id="rId4"/>
+    <sheet name="DataSource" sheetId="11" r:id="rId5"/>
+    <sheet name="Week 12-13" sheetId="5" r:id="rId6"/>
+    <sheet name="Week 14-15" sheetId="6" r:id="rId7"/>
+    <sheet name="Week 16-17" sheetId="7" r:id="rId8"/>
+    <sheet name="Week 18-19" sheetId="8" r:id="rId9"/>
+    <sheet name="Week 20-21" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">newest!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 12-13'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 14-15'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 16-17'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Week 18-19'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'Week 20-21'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 22 - 23'!$B$2:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week24 - 25'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 12-13'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 14-15'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Week 16-17'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Week 18-19'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Week 20-21'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 22 - 23'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week24 - 25'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week26 - 27'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="95">
   <si>
     <t>BIWEEKLY WORK SCHEDULE</t>
   </si>
@@ -370,6 +372,14 @@
   </si>
   <si>
     <t>产品规划</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳万科集团可信电子签名平台售前项目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>年中汇报</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1186,6 +1196,32 @@
     <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="14" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,29 +1254,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1535,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1550,12 +1563,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="65"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="67"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1563,20 +1576,20 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="8">
         <f>C3</f>
-        <v>42912</v>
+        <v>42926</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>3</v>
@@ -1598,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="13">
-        <v>42912</v>
+        <v>42926</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14">
         <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="66">
         <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="16" t="s">
@@ -1620,10 +1633,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="70">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -1634,16 +1647,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="72">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -1682,7 +1695,7 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20">
         <f>B7</f>
-        <v>42912</v>
+        <v>42926</v>
       </c>
       <c r="C6" s="61" t="s">
         <v>85</v>
@@ -1727,17 +1740,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="67">
+      <c r="B7" s="75">
         <f>C3</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="72"/>
+        <v>42926</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="80"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -1772,10 +1785,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="73"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -1809,10 +1822,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -1884,7 +1897,7 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20">
         <f>B12</f>
-        <v>42913</v>
+        <v>42927</v>
       </c>
       <c r="C11" s="61" t="s">
         <v>87</v>
@@ -1928,17 +1941,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67">
+      <c r="B12" s="75">
         <f>B7+1</f>
-        <v>42913</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="72"/>
+        <v>42927</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="80"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1951,10 +1964,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="73"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -1969,10 +1982,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -2007,7 +2020,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="20">
         <f>B17</f>
-        <v>42914</v>
+        <v>42928</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>87</v>
@@ -2025,35 +2038,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="67">
+      <c r="B17" s="75">
         <f>B12+1</f>
-        <v>42914</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="72"/>
+        <v>42928</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="80"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="74"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2065,7 +2078,7 @@
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20">
         <f>B22</f>
-        <v>42915</v>
+        <v>42929</v>
       </c>
       <c r="C21" s="61" t="s">
         <v>70</v>
@@ -2080,33 +2093,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="67">
+      <c r="B22" s="75">
         <f>B17+1</f>
-        <v>42915</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="72"/>
+        <v>42929</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="80"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="74"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2118,7 +2131,7 @@
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20">
         <f>B27</f>
-        <v>42916</v>
+        <v>42930</v>
       </c>
       <c r="C26" s="61" t="s">
         <v>70</v>
@@ -2133,33 +2146,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="67">
+      <c r="B27" s="75">
         <f>B22+1</f>
-        <v>42916</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="72"/>
+        <v>42930</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="80"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="73"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,7 +2184,7 @@
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="20">
         <f>B32</f>
-        <v>42917</v>
+        <v>42931</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>87</v>
@@ -2186,33 +2199,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="67">
+      <c r="B32" s="75">
         <f>B27+1</f>
-        <v>42917</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="69"/>
+        <v>42931</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2224,7 +2233,7 @@
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20">
         <f>B37</f>
-        <v>42918</v>
+        <v>42932</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>73</v>
@@ -2239,29 +2248,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="67">
+      <c r="B37" s="75">
         <f>B32+1</f>
-        <v>42918</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
+        <v>42932</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2274,7 +2283,7 @@
       </c>
       <c r="C41" s="13">
         <f>C3+7</f>
-        <v>42919</v>
+        <v>42933</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2283,7 +2292,7 @@
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="20">
         <f>B44</f>
-        <v>42919</v>
+        <v>42933</v>
       </c>
       <c r="C43" s="61" t="s">
         <v>85</v>
@@ -2298,33 +2307,33 @@
     </row>
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="67">
+      <c r="B44" s="75">
         <f>B37+1</f>
-        <v>42919</v>
-      </c>
-      <c r="C44" s="69" t="s">
+        <v>42933</v>
+      </c>
+      <c r="C44" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="72"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="52"/>
     </row>
     <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="73"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="52"/>
     </row>
     <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="74"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,7 +2347,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="20">
         <f>B49</f>
-        <v>42920</v>
+        <v>42934</v>
       </c>
       <c r="C48" s="61" t="s">
         <v>85</v>
@@ -2353,33 +2362,33 @@
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="67">
+      <c r="B49" s="75">
         <f>B44+1</f>
-        <v>42920</v>
-      </c>
-      <c r="C49" s="69" t="s">
+        <v>42934</v>
+      </c>
+      <c r="C49" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="72"/>
+      <c r="E49" s="80"/>
       <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="73"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="81"/>
       <c r="F50" s="52"/>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="74"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="82"/>
       <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,7 +2402,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="20">
         <f>B54</f>
-        <v>42921</v>
+        <v>42935</v>
       </c>
       <c r="C53" s="61" t="s">
         <v>87</v>
@@ -2408,33 +2417,33 @@
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="67">
+      <c r="B54" s="75">
         <f>B49+1</f>
-        <v>42921</v>
-      </c>
-      <c r="C54" s="69" t="s">
+        <v>42935</v>
+      </c>
+      <c r="C54" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="72"/>
+      <c r="E54" s="80"/>
       <c r="F54" s="52"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="73"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="52"/>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="74"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="52"/>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,7 +2455,7 @@
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="20">
         <f>B59</f>
-        <v>42922</v>
+        <v>42936</v>
       </c>
       <c r="C58" s="61" t="s">
         <v>87</v>
@@ -2461,33 +2470,33 @@
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="67">
+      <c r="B59" s="75">
         <f>B54+1</f>
-        <v>42922</v>
-      </c>
-      <c r="C59" s="69" t="s">
+        <v>42936</v>
+      </c>
+      <c r="C59" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="72"/>
+      <c r="E59" s="80"/>
       <c r="F59" s="52"/>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="73"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="81"/>
       <c r="F60" s="52"/>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="74"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="52"/>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2499,7 +2508,7 @@
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="20">
         <f>B64</f>
-        <v>42923</v>
+        <v>42937</v>
       </c>
       <c r="C63" s="61" t="s">
         <v>87</v>
@@ -2514,33 +2523,33 @@
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="67">
+      <c r="B64" s="75">
         <f>B59+1</f>
-        <v>42923</v>
-      </c>
-      <c r="C64" s="69" t="s">
+        <v>42937</v>
+      </c>
+      <c r="C64" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="D64" s="69" t="s">
+      <c r="D64" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="72"/>
+      <c r="E64" s="80"/>
       <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="73"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="81"/>
       <c r="F65" s="52"/>
     </row>
     <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="74"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="82"/>
       <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,7 +2561,7 @@
     <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="20">
         <f>B69</f>
-        <v>42924</v>
+        <v>42938</v>
       </c>
       <c r="C68" s="61" t="s">
         <v>73</v>
@@ -2567,29 +2576,29 @@
     </row>
     <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="67">
+      <c r="B69" s="75">
         <f>B64+1</f>
-        <v>42924</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="72"/>
+        <v>42938</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="80"/>
       <c r="F69" s="52"/>
     </row>
     <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="73"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="52"/>
     </row>
     <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="74"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="82"/>
       <c r="F71" s="52"/>
     </row>
     <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2601,7 +2610,7 @@
     <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="20">
         <f>B74</f>
-        <v>42925</v>
+        <v>42939</v>
       </c>
       <c r="C73" s="61" t="s">
         <v>73</v>
@@ -2616,29 +2625,3488 @@
     </row>
     <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="67">
+      <c r="B74" s="75">
+        <f>B69+1</f>
+        <v>42939</v>
+      </c>
+      <c r="C74" s="77"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>5</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="70">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="72">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="24">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="24">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="89">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42868</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42875</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="90"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42882</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="89">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="89"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="90"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="89">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="89">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="89">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="89">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="89">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="89">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="89">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="89">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="89">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="89">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="89">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="89">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="65"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42912</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42912</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>26</v>
+      </c>
+      <c r="F3" s="66">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>27</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="70">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="72">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42912</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="75">
+        <f>C3</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="76"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42913</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="75">
+        <f>B7+1</f>
+        <v>42913</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="75"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42914</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="75">
+        <f>B12+1</f>
+        <v>42914</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42915</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="75">
+        <f>B17+1</f>
+        <v>42915</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42916</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="75">
+        <f>B22+1</f>
+        <v>42916</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42917</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="75">
+        <f>B27+1</f>
+        <v>42917</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="77"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42918</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="75">
+        <f>B32+1</f>
+        <v>42918</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42919</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42919</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="75">
+        <f>B37+1</f>
+        <v>42919</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="80"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42920</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="75">
+        <f>B44+1</f>
+        <v>42920</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="80"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42921</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="75">
+        <f>B49+1</f>
+        <v>42921</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="80"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42922</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="75">
+        <f>B54+1</f>
+        <v>42922</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="80"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42923</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="75">
+        <f>B59+1</f>
+        <v>42923</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="80"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42924</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="75">
+        <f>B64+1</f>
+        <v>42924</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42925</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="75">
         <f>B69+1</f>
         <v>42925</v>
       </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="72"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="80"/>
       <c r="F74" s="52"/>
     </row>
     <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="73"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="81"/>
       <c r="F75" s="52"/>
     </row>
     <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="74"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataSource!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="64"/>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>42898</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="66">
+        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>25</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="44">
+        <v>6</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="70">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="72">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="20">
+        <f>B7</f>
+        <v>42898</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="24" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="24" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="24" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="24" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="24">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="75">
+        <f>C3</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="80"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="24">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="24">
+        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="0"/>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="0"/>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" si="0"/>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="76"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="0"/>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="0"/>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="0"/>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f>B12</f>
+        <v>42899</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="52"/>
+      <c r="G11" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="75">
+        <f>B7+1</f>
+        <v>42899</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="75"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="G15" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20">
+        <f>B17</f>
+        <v>42900</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="75">
+        <f>B12+1</f>
+        <v>42900</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20">
+        <f>B22</f>
+        <v>42901</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="75">
+        <f>B17+1</f>
+        <v>42901</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="80"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="52"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="30"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="20">
+        <f>B27</f>
+        <v>42902</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="75">
+        <f>B22+1</f>
+        <v>42902</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="20">
+        <f>B32</f>
+        <v>42903</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="75">
+        <f>B27+1</f>
+        <v>42903</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="52"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20">
+        <f>B37</f>
+        <v>42904</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="75">
+        <f>B32+1</f>
+        <v>42904</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="52"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="13">
+        <f>C3+7</f>
+        <v>42905</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="20">
+        <f>B44</f>
+        <v>42905</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="75">
+        <f>B37+1</f>
+        <v>42905</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="80"/>
+      <c r="F44" s="52"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="20">
+        <f>B49</f>
+        <v>42906</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="75">
+        <f>B44+1</f>
+        <v>42906</v>
+      </c>
+      <c r="C49" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="80"/>
+      <c r="F49" s="52"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="52"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="20">
+        <f>B54</f>
+        <v>42907</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="75">
+        <f>B49+1</f>
+        <v>42907</v>
+      </c>
+      <c r="C54" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="80"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="52"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="52"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="30"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="20">
+        <f>B59</f>
+        <v>42908</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="52"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="75">
+        <f>B54+1</f>
+        <v>42908</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="80"/>
+      <c r="F59" s="52"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="52"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="20">
+        <f>B64</f>
+        <v>42909</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="75">
+        <f>B59+1</f>
+        <v>42909</v>
+      </c>
+      <c r="C64" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="80"/>
+      <c r="F64" s="52"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="52"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="52"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="20">
+        <f>B69</f>
+        <v>42910</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" s="52"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="75">
+        <f>B64+1</f>
+        <v>42910</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="52"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="52"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="20">
+        <f>B74</f>
+        <v>42911</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" s="52"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="75">
+        <f>B69+1</f>
+        <v>42911</v>
+      </c>
+      <c r="C74" s="77"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="52"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="52"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="82"/>
       <c r="F76" s="52"/>
     </row>
   </sheetData>
@@ -2714,1198 +6182,6 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DataSource!$A$1:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:D6 C68:D68 C73:D73 C11:D11 C21:D21 C26:D26 C31:D31 C36:D36 C43:D43 C48:D48 C53:D53 C58:D58 C63:D63 C16:D16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="3" customWidth="1"/>
-    <col min="7" max="13" width="3.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="64"/>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="13">
-        <v>42898</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14">
-        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="66">
-        <f>2+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
-        <v>25</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="44">
-        <v>6</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="80">
-        <v>2017</v>
-      </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="82">
-        <f>DATE(L3,I3,1)</f>
-        <v>42887</v>
-      </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="G5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="20">
-        <f>B7</f>
-        <v>42898</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="24" t="str">
-        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
-        <v/>
-      </c>
-      <c r="H6" s="24" t="str">
-        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
-        <v/>
-      </c>
-      <c r="I6" s="24" t="str">
-        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
-        <v/>
-      </c>
-      <c r="J6" s="24" t="str">
-        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
-        <v/>
-      </c>
-      <c r="K6" s="24">
-        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="L6" s="24">
-        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="M6" s="24">
-        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="67">
-        <f>C3</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="24">
-        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
-        <v>42890</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
-        <v>42891</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="0"/>
-        <v>42892</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="0"/>
-        <v>42893</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="0"/>
-        <v>42894</v>
-      </c>
-      <c r="L7" s="24">
-        <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" si="0"/>
-        <v>42896</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
-        <v>42897</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>42898</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="0"/>
-        <v>42899</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="0"/>
-        <v>42900</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="0"/>
-        <v>42901</v>
-      </c>
-      <c r="L8" s="24">
-        <f t="shared" si="0"/>
-        <v>42902</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="0"/>
-        <v>42903</v>
-      </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="24">
-        <f t="shared" si="1"/>
-        <v>42904</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>42905</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="0"/>
-        <v>42906</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="0"/>
-        <v>42907</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="0"/>
-        <v>42908</v>
-      </c>
-      <c r="L9" s="24">
-        <f t="shared" si="0"/>
-        <v>42909</v>
-      </c>
-      <c r="M9" s="24">
-        <f t="shared" si="0"/>
-        <v>42910</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="G10" s="24">
-        <f t="shared" si="1"/>
-        <v>42911</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>42912</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="0"/>
-        <v>42913</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="0"/>
-        <v>42914</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="0"/>
-        <v>42915</v>
-      </c>
-      <c r="L10" s="24">
-        <f t="shared" si="0"/>
-        <v>42916</v>
-      </c>
-      <c r="M10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="20">
-        <f>B12</f>
-        <v>42899</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67">
-        <f>B7+1</f>
-        <v>42899</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="G15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="20">
-        <f>B17</f>
-        <v>42900</v>
-      </c>
-      <c r="C16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="67">
-        <f>B12+1</f>
-        <v>42900</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="30"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="20">
-        <f>B22</f>
-        <v>42901</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="67">
-        <f>B17+1</f>
-        <v>42901</v>
-      </c>
-      <c r="C22" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="52"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="20">
-        <f>B27</f>
-        <v>42902</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="52"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="67">
-        <f>B22+1</f>
-        <v>42902</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="52"/>
-    </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="52"/>
-    </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="52"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="20">
-        <f>B32</f>
-        <v>42903</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="52"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="67">
-        <f>B27+1</f>
-        <v>42903</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="52"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="52"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="52"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="20">
-        <f>B37</f>
-        <v>42904</v>
-      </c>
-      <c r="C36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="52"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="67">
-        <f>B32+1</f>
-        <v>42904</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="52"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="52"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="13">
-        <f>C3+7</f>
-        <v>42905</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="20">
-        <f>B44</f>
-        <v>42905</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="52"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="67">
-        <f>B37+1</f>
-        <v>42905</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="52"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="52"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="52"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="20">
-        <f>B49</f>
-        <v>42906</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="67">
-        <f>B44+1</f>
-        <v>42906</v>
-      </c>
-      <c r="C49" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="72"/>
-      <c r="F49" s="52"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="52"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="52"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="20">
-        <f>B54</f>
-        <v>42907</v>
-      </c>
-      <c r="C53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="52"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="67">
-        <f>B49+1</f>
-        <v>42907</v>
-      </c>
-      <c r="C54" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="52"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="52"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="52"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="20">
-        <f>B59</f>
-        <v>42908</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="52"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="67">
-        <f>B54+1</f>
-        <v>42908</v>
-      </c>
-      <c r="C59" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="72"/>
-      <c r="F59" s="52"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="52"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="20">
-        <f>B64</f>
-        <v>42909</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="67">
-        <f>B59+1</f>
-        <v>42909</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="72"/>
-      <c r="F64" s="52"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="52"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="52"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="20">
-        <f>B69</f>
-        <v>42910</v>
-      </c>
-      <c r="C68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="52"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="67">
-        <f>B64+1</f>
-        <v>42910</v>
-      </c>
-      <c r="C69" s="69"/>
-      <c r="D69" s="75"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="52"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="52"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="20">
-        <f>B74</f>
-        <v>42911</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="52"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="67">
-        <f>B69+1</f>
-        <v>42911</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="52"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="52"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3919,7 +6195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -3938,11 +6214,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="58"/>
       <c r="G1" s="5" t="s">
         <v>1</v>
@@ -3951,14 +6227,14 @@
       <c r="I1" s="11"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4005,10 +6281,10 @@
       <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="80">
+      <c r="L3" s="70">
         <v>2017</v>
       </c>
-      <c r="M3" s="81"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
@@ -4019,16 +6295,16 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="82">
+      <c r="G4" s="72">
         <f>DATE(L3,I3,1)</f>
         <v>42887</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
@@ -4112,17 +6388,17 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="67">
+      <c r="B7" s="75">
         <f>C3</f>
         <v>42884</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="72"/>
+      <c r="E7" s="80"/>
       <c r="F7" s="60"/>
       <c r="G7" s="24">
         <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
@@ -4157,10 +6433,10 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="73"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="81"/>
       <c r="F8" s="60"/>
       <c r="G8" s="24">
         <f t="shared" ref="G8:G11" si="1">IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
@@ -4194,10 +6470,10 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="74"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="60"/>
       <c r="G9" s="24">
         <f t="shared" si="1"/>
@@ -4313,17 +6589,17 @@
       <c r="O11" s="15"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="67">
+      <c r="B12" s="75">
         <f>B7+1</f>
         <v>42885</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="52"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -4336,10 +6612,10 @@
       <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="73"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="52"/>
       <c r="G13" s="33" t="s">
         <v>18</v>
@@ -4354,10 +6630,10 @@
       <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="52"/>
       <c r="G14" s="33" t="s">
         <v>19</v>
@@ -4410,35 +6686,35 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="67">
+      <c r="B17" s="75">
         <f>B12+1</f>
         <v>42886</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="52"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="52"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="74"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4465,33 +6741,33 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="67">
+      <c r="B22" s="75">
         <f>B17+1</f>
         <v>42887</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="72"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="73"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="74"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4518,33 +6794,33 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="67">
+      <c r="B27" s="75">
         <f>B22+1</f>
         <v>42888</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="72"/>
+      <c r="E27" s="80"/>
       <c r="F27" s="52"/>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="73"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="74"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="82"/>
       <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4571,29 +6847,29 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="67">
+      <c r="B32" s="75">
         <f>B27+1</f>
         <v>42889</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="72"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="52"/>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="73"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="74"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4620,29 +6896,29 @@
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1